--- a/01_doc/test_design/测试用例_eOrder.xlsx
+++ b/01_doc/test_design/测试用例_eOrder.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="435" windowWidth="14835" windowHeight="8235" activeTab="2"/>
+    <workbookView xWindow="555" yWindow="435" windowWidth="14835" windowHeight="8235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="首页" sheetId="4" r:id="rId1"/>
@@ -349,9 +349,6 @@
     <t xml:space="preserve">菜品信息完整的显示在页面，格式为3*2.显示框大小为？ 间距？ </t>
   </si>
   <si>
-    <t>图片大小？ 图片可以放大？</t>
-  </si>
-  <si>
     <t>点击菜品图片</t>
   </si>
   <si>
@@ -433,21 +430,9 @@
 5.菜品名字符数大于4</t>
   </si>
   <si>
-    <t>菜品名称完整的显示</t>
-  </si>
-  <si>
-    <t>检查订单更新功能
-1.在订单详情页面，更新菜品数量
-2. 在订单详情页面，减少菜品数量</t>
-  </si>
-  <si>
     <t>检查下单按钮功能
 1.点击下单按钮
 2. 点击下单按钮，然后点击手机界面上的返回键</t>
-  </si>
-  <si>
-    <t>1. 系统跳转到确认订单页面
-2.下单按钮灰掉？</t>
   </si>
   <si>
     <t>更新成功</t>
@@ -676,12 +661,6 @@
     <t>用户对应的角色的选择</t>
   </si>
   <si>
-    <t>检查创建新用户按钮的功能</t>
-  </si>
-  <si>
-    <t>用户信息准确的加入列表</t>
-  </si>
-  <si>
     <t>用户信息可以完整的查看</t>
   </si>
   <si>
@@ -707,6 +686,35 @@
   </si>
   <si>
     <t>登录系统查看用户信息正确显示</t>
+  </si>
+  <si>
+    <t>图片大小？ 页面加载速度小于5s</t>
+  </si>
+  <si>
+    <t>1-4菜品名称完整的显示
+5.菜品名称被截断显示</t>
+  </si>
+  <si>
+    <t>检查订单更新功能
+1.在订单详情页面，增加某一个菜品菜品数量
+2. 在订单详情页面，减少某一个菜品数量
+3. 在订单详情页面，增加多个菜品数量
+4.订单详情页面，把某一个菜品数量为1的菜品数量更新为0</t>
+  </si>
+  <si>
+    <t>1.系统跳转到确认订单页面
+2.下单按钮灰掉？</t>
+  </si>
+  <si>
+    <t>检查创建新用户按钮的功能
+1.完整按照规则填好各个字段
+2.只填某一个
+3.只填部分字段
+4.在一个或者多个字段填入错误的信息</t>
+  </si>
+  <si>
+    <t>1.用户信息准确的加入列表
+2.系统提示错误信息检查</t>
   </si>
 </sst>
 </file>
@@ -1994,7 +2002,7 @@
   <dimension ref="A1:M35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2404,9 +2412,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K69" sqref="K69"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2481,7 +2489,7 @@
       <c r="G3" s="55"/>
       <c r="H3" s="56"/>
     </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:8" s="71" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="61"/>
       <c r="B4" s="61"/>
       <c r="C4" s="61"/>
@@ -2497,7 +2505,7 @@
       </c>
       <c r="H4" s="59"/>
     </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:8" s="71" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B5" s="61"/>
       <c r="C5" s="61"/>
       <c r="D5" s="61"/>
@@ -2512,7 +2520,7 @@
       </c>
       <c r="H5" s="59"/>
     </row>
-    <row r="6" spans="1:8" s="71" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:8" s="71" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="61"/>
       <c r="C6" s="61"/>
       <c r="D6" s="61"/>
@@ -2527,7 +2535,7 @@
       </c>
       <c r="H6" s="59"/>
     </row>
-    <row r="7" spans="1:8" s="71" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:8" s="71" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B7" s="61"/>
       <c r="C7" s="61"/>
       <c r="D7" s="61"/>
@@ -2535,14 +2543,14 @@
         <v>5</v>
       </c>
       <c r="F7" s="58" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="G7" s="58" t="s">
         <v>78</v>
       </c>
       <c r="H7" s="59"/>
     </row>
-    <row r="8" spans="1:8" s="71" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:8" s="71" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="61"/>
       <c r="C8" s="61"/>
       <c r="D8" s="61"/>
@@ -2557,7 +2565,7 @@
       </c>
       <c r="H8" s="59"/>
     </row>
-    <row r="9" spans="1:8" s="71" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:8" s="71" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B9" s="61"/>
       <c r="C9" s="61"/>
       <c r="D9" s="61"/>
@@ -2572,7 +2580,7 @@
       </c>
       <c r="H9" s="59"/>
     </row>
-    <row r="10" spans="1:8" s="71" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:8" s="71" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="61"/>
       <c r="C10" s="61"/>
       <c r="D10" s="61"/>
@@ -2587,7 +2595,7 @@
       </c>
       <c r="H10" s="59"/>
     </row>
-    <row r="11" spans="1:8" s="71" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:8" s="71" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="70" t="s">
         <v>24</v>
       </c>
@@ -2608,7 +2616,7 @@
       </c>
       <c r="H11" s="56"/>
     </row>
-    <row r="12" spans="1:8" s="71" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:8" s="71" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="61"/>
       <c r="C12" s="61"/>
       <c r="D12" s="61"/>
@@ -2623,7 +2631,7 @@
       </c>
       <c r="H12" s="59"/>
     </row>
-    <row r="13" spans="1:8" s="71" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:8" s="71" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B13" s="61"/>
       <c r="C13" s="61"/>
       <c r="D13" s="61"/>
@@ -2638,7 +2646,7 @@
       </c>
       <c r="H13" s="59"/>
     </row>
-    <row r="14" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="61"/>
       <c r="C14" s="61"/>
       <c r="D14" s="61"/>
@@ -2649,11 +2657,11 @@
         <v>90</v>
       </c>
       <c r="G14" s="60" t="s">
-        <v>93</v>
+        <v>185</v>
       </c>
       <c r="H14" s="59"/>
     </row>
-    <row r="15" spans="1:8" s="71" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:8" s="71" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B15" s="61"/>
       <c r="C15" s="61"/>
       <c r="D15" s="61"/>
@@ -2668,7 +2676,7 @@
       </c>
       <c r="H15" s="59"/>
     </row>
-    <row r="16" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="61"/>
       <c r="C16" s="61"/>
       <c r="D16" s="61"/>
@@ -2676,14 +2684,14 @@
         <v>6</v>
       </c>
       <c r="F16" s="60" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="G16" s="58" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="H16" s="72"/>
     </row>
-    <row r="17" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="61"/>
       <c r="C17" s="61"/>
       <c r="D17" s="61"/>
@@ -2691,14 +2699,14 @@
         <v>7</v>
       </c>
       <c r="F17" s="60" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" s="58" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="H17" s="72"/>
     </row>
-    <row r="18" spans="1:8" s="71" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="70" t="s">
         <v>42</v>
       </c>
@@ -2715,11 +2723,11 @@
         <v>51</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="H18" s="56"/>
     </row>
-    <row r="19" spans="1:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="61"/>
       <c r="C19" s="61"/>
       <c r="D19" s="61"/>
@@ -2727,14 +2735,14 @@
         <v>2</v>
       </c>
       <c r="F19" s="60" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="G19" s="58" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H19" s="72"/>
     </row>
-    <row r="20" spans="1:8" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:8" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B20" s="61"/>
       <c r="C20" s="61"/>
       <c r="D20" s="61"/>
@@ -2742,14 +2750,14 @@
         <v>3</v>
       </c>
       <c r="F20" s="58" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="G20" s="58" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="H20" s="72"/>
     </row>
-    <row r="21" spans="1:8" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="61"/>
       <c r="C21" s="61"/>
       <c r="D21" s="61"/>
@@ -2757,14 +2765,14 @@
         <v>4</v>
       </c>
       <c r="F21" s="77" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="G21" s="58" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
       <c r="H21" s="72"/>
     </row>
-    <row r="22" spans="1:8" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:8" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B22" s="61"/>
       <c r="C22" s="61"/>
       <c r="D22" s="61"/>
@@ -2772,14 +2780,14 @@
         <v>5</v>
       </c>
       <c r="F22" s="60" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G22" s="58" t="s">
-        <v>144</v>
+        <v>140</v>
       </c>
       <c r="H22" s="72"/>
     </row>
-    <row r="23" spans="1:8" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="61"/>
       <c r="C23" s="61"/>
       <c r="D23" s="61"/>
@@ -2787,14 +2795,14 @@
         <v>6</v>
       </c>
       <c r="F23" s="60" t="s">
+        <v>106</v>
+      </c>
+      <c r="G23" s="58" t="s">
         <v>107</v>
       </c>
-      <c r="G23" s="58" t="s">
-        <v>108</v>
-      </c>
       <c r="H23" s="72"/>
     </row>
-    <row r="24" spans="1:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B24" s="61"/>
       <c r="C24" s="61"/>
       <c r="D24" s="61"/>
@@ -2802,14 +2810,14 @@
         <v>7</v>
       </c>
       <c r="F24" s="58" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G24" s="58" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="H24" s="72"/>
     </row>
-    <row r="25" spans="1:8" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="61"/>
       <c r="C25" s="61"/>
       <c r="D25" s="61"/>
@@ -2817,14 +2825,14 @@
         <v>8</v>
       </c>
       <c r="F25" s="60" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="G25" s="60" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="H25" s="72"/>
     </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="43.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:8" s="71" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="70" t="s">
         <v>62</v>
       </c>
@@ -2841,14 +2849,14 @@
         <v>1</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="H26" s="56"/>
     </row>
-    <row r="27" spans="1:8" s="71" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:8" s="71" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="61"/>
       <c r="C27" s="61"/>
       <c r="D27" s="61"/>
@@ -2856,14 +2864,14 @@
         <v>2</v>
       </c>
       <c r="F27" s="58" t="s">
+        <v>109</v>
+      </c>
+      <c r="G27" s="58" t="s">
         <v>110</v>
       </c>
-      <c r="G27" s="58" t="s">
-        <v>111</v>
-      </c>
       <c r="H27" s="72"/>
     </row>
-    <row r="28" spans="1:8" s="71" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:8" s="71" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B28" s="61"/>
       <c r="C28" s="61"/>
       <c r="D28" s="61"/>
@@ -2871,14 +2879,14 @@
         <v>3</v>
       </c>
       <c r="F28" s="60" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G28" s="60" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="H28" s="72"/>
     </row>
-    <row r="29" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="61"/>
       <c r="C29" s="61"/>
       <c r="D29" s="61"/>
@@ -2886,14 +2894,14 @@
         <v>4</v>
       </c>
       <c r="F29" s="58" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="G29" s="58" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="H29" s="72"/>
     </row>
-    <row r="30" spans="1:8" s="71" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:8" s="71" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B30" s="61"/>
       <c r="C30" s="61"/>
       <c r="D30" s="61"/>
@@ -2901,14 +2909,14 @@
         <v>5</v>
       </c>
       <c r="F30" s="58" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G30" s="60" t="s">
-        <v>114</v>
+        <v>186</v>
       </c>
       <c r="H30" s="60"/>
     </row>
-    <row r="31" spans="1:8" s="71" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:8" s="71" customFormat="1" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="78"/>
       <c r="C31" s="78"/>
       <c r="D31" s="78"/>
@@ -2916,14 +2924,14 @@
         <v>6</v>
       </c>
       <c r="F31" s="58" t="s">
-        <v>115</v>
+        <v>187</v>
       </c>
       <c r="G31" s="60" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="H31" s="60"/>
     </row>
-    <row r="32" spans="1:8" s="71" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:8" s="71" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B32" s="78"/>
       <c r="C32" s="78"/>
       <c r="D32" s="78"/>
@@ -2931,14 +2939,14 @@
         <v>7</v>
       </c>
       <c r="F32" s="58" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G32" s="60" t="s">
-        <v>117</v>
+        <v>188</v>
       </c>
       <c r="H32" s="60"/>
     </row>
-    <row r="33" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="78"/>
       <c r="C33" s="78"/>
       <c r="D33" s="78"/>
@@ -2949,11 +2957,11 @@
         <v>52</v>
       </c>
       <c r="G33" s="60" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="H33" s="60"/>
     </row>
-    <row r="34" spans="1:8" s="71" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:8" s="71" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="78"/>
       <c r="C34" s="78"/>
       <c r="D34" s="78"/>
@@ -2961,14 +2969,14 @@
         <v>9</v>
       </c>
       <c r="F34" s="60" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="G34" s="60" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="H34" s="60"/>
     </row>
-    <row r="35" spans="1:8" s="71" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:8" s="71" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="70" t="s">
         <v>54</v>
       </c>
@@ -2982,14 +2990,14 @@
         <v>1</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="H35" s="56"/>
     </row>
-    <row r="36" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="61"/>
       <c r="C36" s="61"/>
       <c r="D36" s="61"/>
@@ -3000,11 +3008,11 @@
         <v>56</v>
       </c>
       <c r="G36" s="61" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="H36" s="61"/>
     </row>
-    <row r="37" spans="1:8" s="71" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:8" s="71" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B37" s="61"/>
       <c r="C37" s="61"/>
       <c r="D37" s="61"/>
@@ -3015,11 +3023,11 @@
         <v>57</v>
       </c>
       <c r="G37" s="61" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="H37" s="61"/>
     </row>
-    <row r="38" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="61"/>
       <c r="C38" s="61"/>
       <c r="D38" s="61"/>
@@ -3030,11 +3038,11 @@
         <v>58</v>
       </c>
       <c r="G38" s="61" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="H38" s="61"/>
     </row>
-    <row r="39" spans="1:8" s="71" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:8" s="71" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B39" s="61"/>
       <c r="C39" s="61"/>
       <c r="D39" s="61"/>
@@ -3042,14 +3050,14 @@
         <v>5</v>
       </c>
       <c r="F39" s="61" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="G39" s="61" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="H39" s="61"/>
     </row>
-    <row r="40" spans="1:8" s="71" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:8" s="71" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B40" s="78"/>
       <c r="C40" s="78"/>
       <c r="D40" s="78"/>
@@ -3057,14 +3065,14 @@
         <v>6</v>
       </c>
       <c r="F40" s="61" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G40" s="61" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="H40" s="78"/>
     </row>
-    <row r="41" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="78"/>
       <c r="C41" s="78"/>
       <c r="D41" s="78"/>
@@ -3072,14 +3080,14 @@
         <v>7</v>
       </c>
       <c r="F41" s="61" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="G41" s="61" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="H41" s="78"/>
     </row>
-    <row r="42" spans="1:8" s="71" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:8" s="71" customFormat="1" ht="43.5" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="78"/>
       <c r="C42" s="78"/>
       <c r="D42" s="78"/>
@@ -3087,14 +3095,14 @@
         <v>8</v>
       </c>
       <c r="F42" s="61" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="G42" s="61" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="H42" s="78"/>
     </row>
-    <row r="43" spans="1:8" s="71" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:8" s="71" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="70" t="s">
         <v>14</v>
       </c>
@@ -3116,7 +3124,7 @@
       <c r="G43" s="55"/>
       <c r="H43" s="56"/>
     </row>
-    <row r="44" spans="1:8" s="71" customFormat="1" ht="15" hidden="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="61"/>
       <c r="C44" s="61"/>
       <c r="D44" s="61"/>
@@ -3127,11 +3135,11 @@
         <v>60</v>
       </c>
       <c r="G44" s="61" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="H44" s="61"/>
     </row>
-    <row r="45" spans="1:8" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="61"/>
       <c r="C45" s="61"/>
       <c r="D45" s="61"/>
@@ -3139,14 +3147,14 @@
         <v>3</v>
       </c>
       <c r="F45" s="58" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G45" s="58" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H45" s="72"/>
     </row>
-    <row r="46" spans="1:8" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:8" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B46" s="61"/>
       <c r="C46" s="61"/>
       <c r="D46" s="61"/>
@@ -3154,14 +3162,14 @@
         <v>4</v>
       </c>
       <c r="F46" s="60" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="G46" s="60" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="H46" s="72"/>
     </row>
-    <row r="47" spans="1:8" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="61"/>
       <c r="C47" s="61"/>
       <c r="D47" s="61"/>
@@ -3169,14 +3177,14 @@
         <v>5</v>
       </c>
       <c r="F47" s="58" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G47" s="58" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="H47" s="72"/>
     </row>
-    <row r="48" spans="1:8" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:8" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B48" s="61"/>
       <c r="C48" s="61"/>
       <c r="D48" s="61"/>
@@ -3184,14 +3192,14 @@
         <v>6</v>
       </c>
       <c r="F48" s="60" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="G48" s="60" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="H48" s="72"/>
     </row>
-    <row r="49" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="49" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="61"/>
       <c r="C49" s="61"/>
       <c r="D49" s="61"/>
@@ -3199,14 +3207,14 @@
         <v>7</v>
       </c>
       <c r="F49" s="58" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="G49" s="58" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="H49" s="72"/>
     </row>
-    <row r="50" spans="2:8" s="71" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="50" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="70" t="s">
         <v>14</v>
       </c>
@@ -3223,11 +3231,11 @@
         <v>66</v>
       </c>
       <c r="G50" s="55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H50" s="56"/>
     </row>
-    <row r="51" spans="2:8" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="51" spans="2:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="61"/>
       <c r="C51" s="61"/>
       <c r="D51" s="61"/>
@@ -3235,14 +3243,14 @@
         <v>2</v>
       </c>
       <c r="F51" s="60" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="G51" s="58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H51" s="72"/>
     </row>
-    <row r="52" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="52" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="61"/>
       <c r="C52" s="61"/>
       <c r="D52" s="61"/>
@@ -3250,14 +3258,14 @@
         <v>3</v>
       </c>
       <c r="F52" s="58" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="G52" s="60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H52" s="72"/>
     </row>
-    <row r="53" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="53" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="61"/>
       <c r="C53" s="61"/>
       <c r="D53" s="61"/>
@@ -3265,14 +3273,14 @@
         <v>4</v>
       </c>
       <c r="F53" s="60" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="G53" s="60" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="H53" s="72"/>
     </row>
-    <row r="54" spans="2:8" s="71" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="54" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="70"/>
       <c r="C54" s="70" t="s">
         <v>65</v>
@@ -3287,11 +3295,11 @@
         <v>67</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H54" s="56"/>
     </row>
-    <row r="55" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B55" s="61"/>
       <c r="C55" s="61"/>
       <c r="D55" s="61"/>
@@ -3299,14 +3307,14 @@
         <v>2</v>
       </c>
       <c r="F55" s="60" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G55" s="60" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="H55" s="72"/>
     </row>
-    <row r="56" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="61"/>
       <c r="C56" s="61"/>
       <c r="D56" s="61"/>
@@ -3314,14 +3322,14 @@
         <v>3</v>
       </c>
       <c r="F56" s="58" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G56" s="58" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="H56" s="72"/>
     </row>
-    <row r="57" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B57" s="61"/>
       <c r="C57" s="61"/>
       <c r="D57" s="61"/>
@@ -3329,14 +3337,14 @@
         <v>4</v>
       </c>
       <c r="F57" s="60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G57" s="60" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="H57" s="72"/>
     </row>
-    <row r="58" spans="2:8" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="2:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="61"/>
       <c r="C58" s="61"/>
       <c r="D58" s="61"/>
@@ -3344,14 +3352,14 @@
         <v>5</v>
       </c>
       <c r="F58" s="58" t="s">
-        <v>177</v>
+        <v>173</v>
       </c>
       <c r="G58" s="58" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="H58" s="72"/>
     </row>
-    <row r="59" spans="2:8" s="71" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="59" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B59" s="70" t="s">
         <v>47</v>
       </c>
@@ -3365,28 +3373,28 @@
         <v>1</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H59" s="56"/>
     </row>
-    <row r="60" spans="2:8" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="60" spans="2:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="61"/>
       <c r="D60" s="61"/>
       <c r="E60" s="57">
         <v>2</v>
       </c>
       <c r="F60" s="60" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="G60" s="58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H60" s="72"/>
     </row>
-    <row r="61" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B61" s="61"/>
       <c r="C61" s="61"/>
       <c r="D61" s="61"/>
@@ -3394,14 +3402,14 @@
         <v>3</v>
       </c>
       <c r="F61" s="58" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G61" s="60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H61" s="72"/>
     </row>
-    <row r="62" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="62" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="61"/>
       <c r="C62" s="61"/>
       <c r="D62" s="61"/>
@@ -3409,14 +3417,14 @@
         <v>4</v>
       </c>
       <c r="F62" s="60" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="G62" s="60" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="H62" s="72"/>
     </row>
-    <row r="63" spans="2:8" s="71" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="63" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="70"/>
       <c r="C63" s="70" t="s">
         <v>69</v>
@@ -3431,11 +3439,11 @@
         <v>67</v>
       </c>
       <c r="G63" s="55" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H63" s="56"/>
     </row>
-    <row r="64" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="64" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="61"/>
       <c r="C64" s="61"/>
       <c r="D64" s="61"/>
@@ -3443,14 +3451,14 @@
         <v>2</v>
       </c>
       <c r="F64" s="60" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G64" s="60" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="H64" s="72"/>
     </row>
-    <row r="65" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B65" s="61"/>
       <c r="C65" s="61"/>
       <c r="D65" s="61"/>
@@ -3458,14 +3466,14 @@
         <v>3</v>
       </c>
       <c r="F65" s="58" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G65" s="58" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="H65" s="72"/>
     </row>
-    <row r="66" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B66" s="61"/>
       <c r="C66" s="61"/>
       <c r="D66" s="61"/>
@@ -3473,14 +3481,14 @@
         <v>4</v>
       </c>
       <c r="F66" s="60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G66" s="60" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="H66" s="72"/>
     </row>
-    <row r="67" spans="2:8" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="67" spans="2:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="78"/>
       <c r="C67" s="61"/>
       <c r="D67" s="61"/>
@@ -3488,14 +3496,14 @@
         <v>5</v>
       </c>
       <c r="F67" s="58" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="G67" s="58" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="H67" s="72"/>
     </row>
-    <row r="68" spans="2:8" s="71" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B68" s="70" t="s">
         <v>46</v>
       </c>
@@ -3509,14 +3517,14 @@
         <v>1</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G68" s="55" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="H68" s="56"/>
     </row>
-    <row r="69" spans="2:8" ht="86.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="69" spans="2:8" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="61"/>
       <c r="C69" s="61"/>
       <c r="D69" s="61"/>
@@ -3524,14 +3532,14 @@
         <v>2</v>
       </c>
       <c r="F69" s="60" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="G69" s="58" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="H69" s="72"/>
     </row>
-    <row r="70" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B70" s="61"/>
       <c r="C70" s="61"/>
       <c r="D70" s="61"/>
@@ -3539,14 +3547,14 @@
         <v>3</v>
       </c>
       <c r="F70" s="58" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="G70" s="60" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="H70" s="72"/>
     </row>
-    <row r="71" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="71" spans="2:8" ht="72" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B71" s="61"/>
       <c r="C71" s="61"/>
       <c r="D71" s="61"/>
@@ -3554,14 +3562,14 @@
         <v>4</v>
       </c>
       <c r="F71" s="60" t="s">
-        <v>180</v>
+        <v>189</v>
       </c>
       <c r="G71" s="60" t="s">
-        <v>181</v>
+        <v>190</v>
       </c>
       <c r="H71" s="72"/>
     </row>
-    <row r="72" spans="2:8" s="71" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="72" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="70"/>
       <c r="C72" s="70" t="s">
         <v>71</v>
@@ -3576,11 +3584,11 @@
         <v>67</v>
       </c>
       <c r="G72" s="55" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="H72" s="56"/>
     </row>
-    <row r="73" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="73" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="61"/>
       <c r="C73" s="61"/>
       <c r="D73" s="61"/>
@@ -3588,14 +3596,14 @@
         <v>2</v>
       </c>
       <c r="F73" s="60" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="G73" s="60" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H73" s="72"/>
     </row>
-    <row r="74" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B74" s="61"/>
       <c r="C74" s="61"/>
       <c r="D74" s="61"/>
@@ -3603,14 +3611,14 @@
         <v>3</v>
       </c>
       <c r="F74" s="58" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="G74" s="58" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="H74" s="72"/>
     </row>
-    <row r="75" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B75" s="61"/>
       <c r="C75" s="61"/>
       <c r="D75" s="61"/>
@@ -3618,14 +3626,14 @@
         <v>4</v>
       </c>
       <c r="F75" s="60" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="G75" s="58" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H75" s="72"/>
     </row>
-    <row r="76" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="76" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B76" s="78"/>
       <c r="C76" s="78"/>
       <c r="D76" s="78"/>
@@ -3633,14 +3641,14 @@
         <v>5</v>
       </c>
       <c r="F76" s="58" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="G76" s="58" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="H76" s="72"/>
     </row>
-    <row r="77" spans="2:8" s="71" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="77" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="70"/>
       <c r="C77" s="70" t="s">
         <v>72</v>
@@ -3652,14 +3660,14 @@
         <v>1</v>
       </c>
       <c r="F77" s="55" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="G77" s="55" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H77" s="56"/>
     </row>
-    <row r="78" spans="2:8" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B78" s="61"/>
       <c r="C78" s="61"/>
       <c r="D78" s="61"/>
@@ -3667,14 +3675,14 @@
         <v>2</v>
       </c>
       <c r="F78" s="58" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="G78" s="58" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H78" s="72"/>
     </row>
-    <row r="79" spans="2:8" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B79" s="61"/>
       <c r="C79" s="61"/>
       <c r="D79" s="61"/>
@@ -3682,14 +3690,14 @@
         <v>3</v>
       </c>
       <c r="F79" s="60" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="G79" s="58" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="H79" s="72"/>
     </row>
-    <row r="80" spans="2:8" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="80" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B80" s="61"/>
       <c r="C80" s="61"/>
       <c r="D80" s="61"/>
@@ -3875,8 +3883,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/01_doc/test_design/测试用例_eOrder.xlsx
+++ b/01_doc/test_design/测试用例_eOrder.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -281,10 +281,6 @@
 2.点击功能</t>
   </si>
   <si>
-    <t>1.分类按钮显示在页面的右上角，按钮名称为菜单分类，字体为？
-2.点击菜单分类按钮，下拉菜单显示所有的菜品分类</t>
-  </si>
-  <si>
     <t>1-4. 分类名完整显示
 5. 分类名被截断</t>
   </si>
@@ -307,9 +303,6 @@
   <si>
     <t>1-5 菜品名完整的显示
 6 菜品名被截断显示</t>
-  </si>
-  <si>
-    <t>翻页功能：左右翻页</t>
   </si>
   <si>
     <t>订餐系统首页分类显示菜品信息,默认页面为第一个选项卡对应的页面</t>
@@ -325,11 +318,6 @@
     <t xml:space="preserve">
 1.分类显示在第一页
 2.上下滑动分类菜单，分类信息完整的显示</t>
-  </si>
-  <si>
-    <t>检查不同长度字符在菜单分类的显示
-1.分类总数&lt;=5
-2.分类总数&gt;5 &lt;=10</t>
   </si>
   <si>
     <t>检查不同长度字符在菜品名的显示
@@ -715,6 +703,18 @@
   <si>
     <t>1.用户信息准确的加入列表
 2.系统提示错误信息检查</t>
+  </si>
+  <si>
+    <t>1.分类按钮显示在页面的左上角，按钮名称为菜单分类
+2.分类信息完整的显示
+3.对应的分类页面正常完整显示</t>
+  </si>
+  <si>
+    <t>检查不同长度字符在菜单分类的显示
+1.分类总数&gt;5 &lt;=10</t>
+  </si>
+  <si>
+    <t>翻页功能：上下翻页</t>
   </si>
 </sst>
 </file>
@@ -724,7 +724,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="28" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -860,13 +860,6 @@
       <charset val="134"/>
     </font>
     <font>
-      <i/>
-      <sz val="12"/>
-      <name val="楷体"/>
-      <family val="3"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color indexed="8"/>
       <name val="楷体"/>
@@ -1360,78 +1353,72 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="21" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="7" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="23" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="21" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -1495,14 +1482,20 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2032,15 +2025,15 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="94" t="s">
+      <c r="A2" s="92" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="95"/>
-      <c r="C2" s="95"/>
-      <c r="D2" s="95"/>
-      <c r="E2" s="95"/>
-      <c r="F2" s="95"/>
-      <c r="G2" s="96"/>
+      <c r="B2" s="93"/>
+      <c r="C2" s="93"/>
+      <c r="D2" s="93"/>
+      <c r="E2" s="93"/>
+      <c r="F2" s="93"/>
+      <c r="G2" s="94"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -2087,13 +2080,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="97"/>
-      <c r="B5" s="98"/>
-      <c r="C5" s="98"/>
-      <c r="D5" s="98"/>
-      <c r="E5" s="98"/>
-      <c r="F5" s="98"/>
-      <c r="G5" s="99"/>
+      <c r="A5" s="95"/>
+      <c r="B5" s="96"/>
+      <c r="C5" s="96"/>
+      <c r="D5" s="96"/>
+      <c r="E5" s="96"/>
+      <c r="F5" s="96"/>
+      <c r="G5" s="97"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -2101,13 +2094,13 @@
       <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="97"/>
-      <c r="B6" s="98"/>
-      <c r="C6" s="98"/>
-      <c r="D6" s="98"/>
-      <c r="E6" s="98"/>
-      <c r="F6" s="98"/>
-      <c r="G6" s="99"/>
+      <c r="A6" s="95"/>
+      <c r="B6" s="96"/>
+      <c r="C6" s="96"/>
+      <c r="D6" s="96"/>
+      <c r="E6" s="96"/>
+      <c r="F6" s="96"/>
+      <c r="G6" s="97"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
@@ -2115,15 +2108,15 @@
       <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="100" t="s">
+      <c r="A7" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="101"/>
-      <c r="C7" s="101"/>
-      <c r="D7" s="101"/>
-      <c r="E7" s="101"/>
-      <c r="F7" s="101"/>
-      <c r="G7" s="102"/>
+      <c r="B7" s="99"/>
+      <c r="C7" s="99"/>
+      <c r="D7" s="99"/>
+      <c r="E7" s="99"/>
+      <c r="F7" s="99"/>
+      <c r="G7" s="100"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -2131,44 +2124,44 @@
       <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="97"/>
-      <c r="B8" s="98"/>
-      <c r="C8" s="98"/>
-      <c r="D8" s="98"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="98"/>
-      <c r="G8" s="99"/>
+      <c r="A8" s="95"/>
+      <c r="B8" s="96"/>
+      <c r="C8" s="96"/>
+      <c r="D8" s="96"/>
+      <c r="E8" s="96"/>
+      <c r="F8" s="96"/>
+      <c r="G8" s="97"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="91" t="s">
+      <c r="A9" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="92"/>
-      <c r="C9" s="92"/>
-      <c r="D9" s="92"/>
-      <c r="E9" s="92"/>
-      <c r="F9" s="92"/>
-      <c r="G9" s="93"/>
+      <c r="B9" s="90"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="90"/>
+      <c r="E9" s="90"/>
+      <c r="F9" s="90"/>
+      <c r="G9" s="91"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="91"/>
-      <c r="B10" s="92"/>
-      <c r="C10" s="92"/>
-      <c r="D10" s="92"/>
-      <c r="E10" s="92"/>
-      <c r="F10" s="92"/>
-      <c r="G10" s="93"/>
+      <c r="A10" s="89"/>
+      <c r="B10" s="90"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="90"/>
+      <c r="E10" s="90"/>
+      <c r="F10" s="90"/>
+      <c r="G10" s="91"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="88" t="s">
+      <c r="A11" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="89"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="89"/>
-      <c r="E11" s="89"/>
-      <c r="F11" s="89"/>
-      <c r="G11" s="90"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="87"/>
+      <c r="D11" s="87"/>
+      <c r="E11" s="87"/>
+      <c r="F11" s="87"/>
+      <c r="G11" s="88"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
@@ -2234,12 +2227,12 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="86"/>
-      <c r="B19" s="87"/>
-      <c r="C19" s="87"/>
-      <c r="D19" s="87"/>
-      <c r="E19" s="87"/>
-      <c r="F19" s="87"/>
+      <c r="A19" s="84"/>
+      <c r="B19" s="85"/>
+      <c r="C19" s="85"/>
+      <c r="D19" s="85"/>
+      <c r="E19" s="85"/>
+      <c r="F19" s="85"/>
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2353,8 +2346,8 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="53"/>
-      <c r="C32" s="103"/>
-      <c r="D32" s="103"/>
+      <c r="C32" s="101"/>
+      <c r="D32" s="101"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
@@ -2362,8 +2355,8 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="53"/>
-      <c r="C33" s="85"/>
-      <c r="D33" s="85"/>
+      <c r="C33" s="83"/>
+      <c r="D33" s="83"/>
       <c r="E33" s="27"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
@@ -2413,71 +2406,71 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A54" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F75" sqref="F75"/>
+      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" style="64" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" style="73" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="73" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="73" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="74" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="75" customWidth="1"/>
-    <col min="7" max="7" width="62.7109375" style="76" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="76" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="64"/>
+    <col min="1" max="1" width="21.28515625" style="62" customWidth="1"/>
+    <col min="2" max="2" width="22.28515625" style="71" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="28.85546875" style="71" customWidth="1"/>
+    <col min="4" max="4" width="11.140625" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.85546875" style="72" customWidth="1"/>
+    <col min="6" max="6" width="54.42578125" style="73" customWidth="1"/>
+    <col min="7" max="7" width="62.7109375" style="74" customWidth="1"/>
+    <col min="8" max="8" width="16.140625" style="74" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="104"/>
-      <c r="C1" s="104"/>
-      <c r="D1" s="62"/>
-      <c r="E1" s="105" t="s">
+      <c r="B1" s="102"/>
+      <c r="C1" s="102"/>
+      <c r="D1" s="60"/>
+      <c r="E1" s="103" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="63"/>
+      <c r="F1" s="102"/>
+      <c r="G1" s="104"/>
+      <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A2" s="65" t="s">
+      <c r="A2" s="63" t="s">
         <v>43</v>
       </c>
-      <c r="B2" s="65" t="s">
+      <c r="B2" s="63" t="s">
         <v>28</v>
       </c>
-      <c r="C2" s="66" t="s">
+      <c r="C2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="67" t="s">
+      <c r="D2" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="68" t="s">
+      <c r="E2" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="66" t="s">
+      <c r="F2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="69" t="s">
+      <c r="G2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="69" t="s">
+      <c r="H2" s="67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="71" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="70" t="s">
+    <row r="3" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="68" t="s">
         <v>63</v>
       </c>
-      <c r="B3" s="70" t="s">
+      <c r="B3" s="68" t="s">
         <v>25</v>
       </c>
-      <c r="C3" s="70" t="s">
+      <c r="C3" s="68" t="s">
         <v>37</v>
       </c>
-      <c r="D3" s="70" t="s">
+      <c r="D3" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E3" s="54">
@@ -2487,122 +2480,136 @@
         <v>39</v>
       </c>
       <c r="G3" s="55"/>
-      <c r="H3" s="56"/>
-    </row>
-    <row r="4" spans="1:8" s="71" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="61"/>
-      <c r="B4" s="61"/>
-      <c r="C4" s="61"/>
-      <c r="D4" s="61"/>
-      <c r="E4" s="57">
+      <c r="H3" s="105"/>
+    </row>
+    <row r="4" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="59"/>
+      <c r="B4" s="59"/>
+      <c r="C4" s="59"/>
+      <c r="D4" s="59"/>
+      <c r="E4" s="56">
         <v>2</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="58" t="s">
-        <v>85</v>
-      </c>
-      <c r="H4" s="59"/>
-    </row>
-    <row r="5" spans="1:8" s="71" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B5" s="61"/>
-      <c r="C5" s="61"/>
-      <c r="D5" s="61"/>
+      <c r="G4" s="57" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="69" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B5" s="59"/>
+      <c r="C5" s="59"/>
+      <c r="D5" s="59"/>
       <c r="E5" s="54">
         <v>3</v>
       </c>
-      <c r="F5" s="58" t="s">
-        <v>86</v>
-      </c>
-      <c r="G5" s="58" t="s">
+      <c r="F5" s="57" t="s">
+        <v>84</v>
+      </c>
+      <c r="G5" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="59"/>
-    </row>
-    <row r="6" spans="1:8" s="71" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="61"/>
-      <c r="C6" s="61"/>
-      <c r="D6" s="61"/>
-      <c r="E6" s="57">
+      <c r="H5" s="106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="59"/>
+      <c r="C6" s="59"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="56">
         <v>4</v>
       </c>
-      <c r="F6" s="58" t="s">
+      <c r="F6" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="H6" s="59"/>
-    </row>
-    <row r="7" spans="1:8" s="71" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B7" s="61"/>
-      <c r="C7" s="61"/>
-      <c r="D7" s="61"/>
+      <c r="G6" s="57" t="s">
+        <v>188</v>
+      </c>
+      <c r="H6" s="106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B7" s="59"/>
+      <c r="C7" s="59"/>
+      <c r="D7" s="59"/>
       <c r="E7" s="54">
         <v>5</v>
       </c>
-      <c r="F7" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="G7" s="58" t="s">
-        <v>78</v>
-      </c>
-      <c r="H7" s="59"/>
-    </row>
-    <row r="8" spans="1:8" s="71" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="61"/>
-      <c r="C8" s="61"/>
-      <c r="D8" s="61"/>
-      <c r="E8" s="57">
+      <c r="F7" s="57" t="s">
+        <v>135</v>
+      </c>
+      <c r="G7" s="57" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" s="106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="59"/>
+      <c r="C8" s="59"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="56">
         <v>6</v>
       </c>
-      <c r="F8" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="G8" s="58" t="s">
-        <v>87</v>
-      </c>
-      <c r="H8" s="59"/>
-    </row>
-    <row r="9" spans="1:8" s="71" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
+      <c r="F8" s="57" t="s">
+        <v>189</v>
+      </c>
+      <c r="G8" s="57" t="s">
+        <v>85</v>
+      </c>
+      <c r="H8" s="106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="59"/>
+      <c r="C9" s="59"/>
+      <c r="D9" s="59"/>
       <c r="E9" s="54">
         <v>7</v>
       </c>
-      <c r="F9" s="58" t="s">
+      <c r="F9" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="G9" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="G9" s="58" t="s">
+      <c r="H9" s="106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="59"/>
+      <c r="C10" s="59"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="56">
+        <v>8</v>
+      </c>
+      <c r="F10" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="H9" s="59"/>
-    </row>
-    <row r="10" spans="1:8" s="71" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="61"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="61"/>
-      <c r="E10" s="57">
-        <v>8</v>
-      </c>
-      <c r="F10" s="58" t="s">
-        <v>81</v>
-      </c>
-      <c r="G10" s="58" t="s">
+      <c r="G10" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="59"/>
-    </row>
-    <row r="11" spans="1:8" s="71" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B11" s="70" t="s">
+      <c r="H10" s="106" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
-      <c r="C11" s="70" t="s">
+      <c r="C11" s="68" t="s">
         <v>40</v>
       </c>
-      <c r="D11" s="70" t="s">
+      <c r="D11" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E11" s="54">
@@ -2611,109 +2618,121 @@
       <c r="F11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="84" t="s">
-        <v>92</v>
-      </c>
-      <c r="H11" s="56"/>
-    </row>
-    <row r="12" spans="1:8" s="71" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="61"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="61"/>
-      <c r="E12" s="57">
+      <c r="G11" s="82" t="s">
+        <v>89</v>
+      </c>
+      <c r="H11" s="105" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B12" s="59"/>
+      <c r="C12" s="59"/>
+      <c r="D12" s="59"/>
+      <c r="E12" s="56">
         <v>2</v>
       </c>
-      <c r="F12" s="58" t="s">
+      <c r="F12" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="60" t="s">
-        <v>82</v>
-      </c>
-      <c r="H12" s="59"/>
-    </row>
-    <row r="13" spans="1:8" s="71" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B13" s="61"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="61"/>
+      <c r="G12" s="58" t="s">
+        <v>81</v>
+      </c>
+      <c r="H12" s="106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="59"/>
+      <c r="C13" s="59"/>
+      <c r="D13" s="59"/>
       <c r="E13" s="54">
         <v>3</v>
       </c>
-      <c r="F13" s="60" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="60" t="s">
-        <v>83</v>
-      </c>
-      <c r="H13" s="59"/>
-    </row>
-    <row r="14" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B14" s="61"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="61"/>
-      <c r="E14" s="57">
+      <c r="F13" s="58" t="s">
+        <v>86</v>
+      </c>
+      <c r="G13" s="58" t="s">
+        <v>82</v>
+      </c>
+      <c r="H13" s="106" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="59"/>
+      <c r="C14" s="59"/>
+      <c r="D14" s="59"/>
+      <c r="E14" s="56">
         <v>4</v>
       </c>
-      <c r="F14" s="60" t="s">
-        <v>90</v>
-      </c>
-      <c r="G14" s="60" t="s">
-        <v>185</v>
-      </c>
-      <c r="H14" s="59"/>
-    </row>
-    <row r="15" spans="1:8" s="71" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B15" s="61"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="61"/>
+      <c r="F14" s="58" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="58" t="s">
+        <v>182</v>
+      </c>
+      <c r="H14" s="106"/>
+    </row>
+    <row r="15" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B15" s="59"/>
+      <c r="C15" s="59"/>
+      <c r="D15" s="59"/>
       <c r="E15" s="54">
         <v>5</v>
       </c>
-      <c r="F15" s="60" t="s">
-        <v>84</v>
-      </c>
-      <c r="G15" s="60" t="s">
-        <v>91</v>
-      </c>
-      <c r="H15" s="59"/>
+      <c r="F15" s="58" t="s">
+        <v>190</v>
+      </c>
+      <c r="G15" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="H15" s="106" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="16" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="61"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="61"/>
-      <c r="E16" s="57">
+      <c r="B16" s="59"/>
+      <c r="C16" s="59"/>
+      <c r="D16" s="59"/>
+      <c r="E16" s="56">
         <v>6</v>
       </c>
-      <c r="F16" s="60" t="s">
-        <v>93</v>
-      </c>
-      <c r="G16" s="58" t="s">
-        <v>95</v>
-      </c>
-      <c r="H16" s="72"/>
+      <c r="F16" s="58" t="s">
+        <v>90</v>
+      </c>
+      <c r="G16" s="57" t="s">
+        <v>92</v>
+      </c>
+      <c r="H16" s="70" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="17" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="61"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="61"/>
+      <c r="B17" s="59"/>
+      <c r="C17" s="59"/>
+      <c r="D17" s="59"/>
       <c r="E17" s="54">
         <v>7</v>
       </c>
-      <c r="F17" s="60" t="s">
-        <v>94</v>
-      </c>
-      <c r="G17" s="58" t="s">
-        <v>101</v>
-      </c>
-      <c r="H17" s="72"/>
-    </row>
-    <row r="18" spans="1:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="70" t="s">
+      <c r="F17" s="58" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" s="57" t="s">
+        <v>98</v>
+      </c>
+      <c r="H17" s="70" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B18" s="68" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="70" t="s">
+      <c r="C18" s="68" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="70" t="s">
+      <c r="D18" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E18" s="54">
@@ -2723,396 +2742,418 @@
         <v>51</v>
       </c>
       <c r="G18" s="55" t="s">
-        <v>96</v>
-      </c>
-      <c r="H18" s="56"/>
+        <v>93</v>
+      </c>
+      <c r="H18" s="105" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="19" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="61"/>
-      <c r="C19" s="61"/>
-      <c r="D19" s="61"/>
-      <c r="E19" s="57">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="60" t="s">
-        <v>97</v>
-      </c>
-      <c r="G19" s="58" t="s">
-        <v>103</v>
-      </c>
-      <c r="H19" s="72"/>
+      <c r="F19" s="58" t="s">
+        <v>94</v>
+      </c>
+      <c r="G19" s="57" t="s">
+        <v>100</v>
+      </c>
+      <c r="H19" s="70" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="20" spans="1:8" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B20" s="61"/>
-      <c r="C20" s="61"/>
-      <c r="D20" s="61"/>
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
       <c r="E20" s="54">
         <v>3</v>
       </c>
-      <c r="F20" s="58" t="s">
-        <v>98</v>
-      </c>
-      <c r="G20" s="58" t="s">
-        <v>104</v>
-      </c>
-      <c r="H20" s="72"/>
+      <c r="F20" s="57" t="s">
+        <v>95</v>
+      </c>
+      <c r="G20" s="57" t="s">
+        <v>101</v>
+      </c>
+      <c r="H20" s="70"/>
     </row>
     <row r="21" spans="1:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="61"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="57">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="77" t="s">
-        <v>102</v>
-      </c>
-      <c r="G21" s="58" t="s">
-        <v>139</v>
-      </c>
-      <c r="H21" s="72"/>
+      <c r="F21" s="75" t="s">
+        <v>99</v>
+      </c>
+      <c r="G21" s="57" t="s">
+        <v>136</v>
+      </c>
+      <c r="H21" s="70"/>
     </row>
     <row r="22" spans="1:8" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B22" s="61"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="61"/>
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
       <c r="E22" s="54">
         <v>5</v>
       </c>
-      <c r="F22" s="60" t="s">
-        <v>99</v>
-      </c>
-      <c r="G22" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="H22" s="72"/>
+      <c r="F22" s="58" t="s">
+        <v>96</v>
+      </c>
+      <c r="G22" s="57" t="s">
+        <v>137</v>
+      </c>
+      <c r="H22" s="70"/>
     </row>
     <row r="23" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="61"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="57">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="56">
         <v>6</v>
       </c>
-      <c r="F23" s="60" t="s">
-        <v>106</v>
-      </c>
-      <c r="G23" s="58" t="s">
-        <v>107</v>
-      </c>
-      <c r="H23" s="72"/>
+      <c r="F23" s="58" t="s">
+        <v>103</v>
+      </c>
+      <c r="G23" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="H23" s="70"/>
     </row>
     <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B24" s="61"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="61"/>
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
       <c r="E24" s="54">
         <v>7</v>
       </c>
-      <c r="F24" s="58" t="s">
-        <v>100</v>
-      </c>
-      <c r="G24" s="58" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="72"/>
+      <c r="F24" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="G24" s="57" t="s">
+        <v>102</v>
+      </c>
+      <c r="H24" s="70"/>
     </row>
     <row r="25" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="61"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="57">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="56">
         <v>8</v>
       </c>
-      <c r="F25" s="60" t="s">
-        <v>142</v>
-      </c>
-      <c r="G25" s="60" t="s">
-        <v>141</v>
-      </c>
-      <c r="H25" s="72"/>
-    </row>
-    <row r="26" spans="1:8" s="71" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="70" t="s">
+      <c r="F25" s="58" t="s">
+        <v>139</v>
+      </c>
+      <c r="G25" s="58" t="s">
+        <v>138</v>
+      </c>
+      <c r="H25" s="70"/>
+    </row>
+    <row r="26" spans="1:8" s="69" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="68" t="s">
         <v>62</v>
       </c>
-      <c r="B26" s="70" t="s">
+      <c r="B26" s="68" t="s">
         <v>44</v>
       </c>
-      <c r="C26" s="70" t="s">
+      <c r="C26" s="68" t="s">
         <v>53</v>
       </c>
-      <c r="D26" s="70" t="s">
+      <c r="D26" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E26" s="54">
         <v>1</v>
       </c>
       <c r="F26" s="55" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="G26" s="55" t="s">
-        <v>110</v>
-      </c>
-      <c r="H26" s="56"/>
-    </row>
-    <row r="27" spans="1:8" s="71" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="61"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="57">
+        <v>107</v>
+      </c>
+      <c r="H26" s="105" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="56">
         <v>2</v>
       </c>
-      <c r="F27" s="58" t="s">
-        <v>109</v>
-      </c>
-      <c r="G27" s="58" t="s">
-        <v>110</v>
-      </c>
-      <c r="H27" s="72"/>
-    </row>
-    <row r="28" spans="1:8" s="71" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B28" s="61"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="61"/>
+      <c r="F27" s="57" t="s">
+        <v>106</v>
+      </c>
+      <c r="G27" s="57" t="s">
+        <v>107</v>
+      </c>
+      <c r="H27" s="70"/>
+    </row>
+    <row r="28" spans="1:8" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
       <c r="E28" s="54">
         <v>3</v>
       </c>
-      <c r="F28" s="60" t="s">
-        <v>111</v>
-      </c>
-      <c r="G28" s="60" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="72"/>
-    </row>
-    <row r="29" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="61"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="57">
+      <c r="F28" s="58" t="s">
+        <v>108</v>
+      </c>
+      <c r="G28" s="58" t="s">
+        <v>140</v>
+      </c>
+      <c r="H28" s="70"/>
+    </row>
+    <row r="29" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="56">
         <v>4</v>
       </c>
-      <c r="F29" s="58" t="s">
-        <v>144</v>
-      </c>
-      <c r="G29" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="H29" s="72"/>
-    </row>
-    <row r="30" spans="1:8" s="71" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B30" s="61"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="61"/>
+      <c r="F29" s="57" t="s">
+        <v>141</v>
+      </c>
+      <c r="G29" s="57" t="s">
+        <v>142</v>
+      </c>
+      <c r="H29" s="70"/>
+    </row>
+    <row r="30" spans="1:8" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
       <c r="E30" s="54">
         <v>5</v>
       </c>
-      <c r="F30" s="58" t="s">
-        <v>112</v>
-      </c>
-      <c r="G30" s="60" t="s">
-        <v>186</v>
-      </c>
-      <c r="H30" s="60"/>
-    </row>
-    <row r="31" spans="1:8" s="71" customFormat="1" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B31" s="78"/>
-      <c r="C31" s="78"/>
-      <c r="D31" s="78"/>
-      <c r="E31" s="57">
+      <c r="F30" s="57" t="s">
+        <v>109</v>
+      </c>
+      <c r="G30" s="58" t="s">
+        <v>183</v>
+      </c>
+      <c r="H30" s="58"/>
+    </row>
+    <row r="31" spans="1:8" s="69" customFormat="1" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B31" s="76"/>
+      <c r="C31" s="76"/>
+      <c r="D31" s="76"/>
+      <c r="E31" s="56">
         <v>6</v>
       </c>
-      <c r="F31" s="58" t="s">
-        <v>187</v>
-      </c>
-      <c r="G31" s="60" t="s">
-        <v>114</v>
-      </c>
-      <c r="H31" s="60"/>
-    </row>
-    <row r="32" spans="1:8" s="71" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B32" s="78"/>
-      <c r="C32" s="78"/>
-      <c r="D32" s="78"/>
+      <c r="F31" s="57" t="s">
+        <v>184</v>
+      </c>
+      <c r="G31" s="58" t="s">
+        <v>111</v>
+      </c>
+      <c r="H31" s="58"/>
+    </row>
+    <row r="32" spans="1:8" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B32" s="76"/>
+      <c r="C32" s="76"/>
+      <c r="D32" s="76"/>
       <c r="E32" s="54">
         <v>7</v>
       </c>
-      <c r="F32" s="58" t="s">
-        <v>113</v>
-      </c>
-      <c r="G32" s="60" t="s">
-        <v>188</v>
-      </c>
-      <c r="H32" s="60"/>
-    </row>
-    <row r="33" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B33" s="78"/>
-      <c r="C33" s="78"/>
-      <c r="D33" s="78"/>
-      <c r="E33" s="57">
+      <c r="F32" s="57" t="s">
+        <v>110</v>
+      </c>
+      <c r="G32" s="58" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="58" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B33" s="76"/>
+      <c r="C33" s="76"/>
+      <c r="D33" s="76"/>
+      <c r="E33" s="56">
         <v>8</v>
       </c>
-      <c r="F33" s="58" t="s">
+      <c r="F33" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="60" t="s">
-        <v>115</v>
-      </c>
-      <c r="H33" s="60"/>
-    </row>
-    <row r="34" spans="1:8" s="71" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B34" s="78"/>
-      <c r="C34" s="78"/>
-      <c r="D34" s="78"/>
+      <c r="G33" s="58" t="s">
+        <v>112</v>
+      </c>
+      <c r="H33" s="58"/>
+    </row>
+    <row r="34" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B34" s="76"/>
+      <c r="C34" s="76"/>
+      <c r="D34" s="76"/>
       <c r="E34" s="54">
         <v>9</v>
       </c>
-      <c r="F34" s="60" t="s">
-        <v>116</v>
-      </c>
-      <c r="G34" s="60" t="s">
-        <v>103</v>
-      </c>
-      <c r="H34" s="60"/>
-    </row>
-    <row r="35" spans="1:8" s="71" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B35" s="70" t="s">
+      <c r="F34" s="58" t="s">
+        <v>113</v>
+      </c>
+      <c r="G34" s="58" t="s">
+        <v>100</v>
+      </c>
+      <c r="H34" s="58" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B35" s="68" t="s">
         <v>54</v>
       </c>
-      <c r="C35" s="70" t="s">
+      <c r="C35" s="68" t="s">
         <v>55</v>
       </c>
-      <c r="D35" s="70" t="s">
+      <c r="D35" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E35" s="54">
         <v>1</v>
       </c>
       <c r="F35" s="55" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="G35" s="55" t="s">
-        <v>118</v>
-      </c>
-      <c r="H35" s="56"/>
-    </row>
-    <row r="36" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B36" s="61"/>
-      <c r="C36" s="61"/>
-      <c r="D36" s="61"/>
-      <c r="E36" s="57">
+        <v>115</v>
+      </c>
+      <c r="H35" s="105"/>
+    </row>
+    <row r="36" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="59"/>
+      <c r="C36" s="59"/>
+      <c r="D36" s="59"/>
+      <c r="E36" s="56">
         <v>2</v>
       </c>
-      <c r="F36" s="61" t="s">
+      <c r="F36" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="61" t="s">
-        <v>119</v>
-      </c>
-      <c r="H36" s="61"/>
-    </row>
-    <row r="37" spans="1:8" s="71" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B37" s="61"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
+      <c r="G36" s="59" t="s">
+        <v>116</v>
+      </c>
+      <c r="H36" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B37" s="59"/>
+      <c r="C37" s="59"/>
+      <c r="D37" s="59"/>
       <c r="E37" s="54">
         <v>3</v>
       </c>
-      <c r="F37" s="61" t="s">
+      <c r="F37" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="61" t="s">
-        <v>120</v>
-      </c>
-      <c r="H37" s="61"/>
-    </row>
-    <row r="38" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B38" s="61"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="61"/>
-      <c r="E38" s="57">
+      <c r="G37" s="59" t="s">
+        <v>117</v>
+      </c>
+      <c r="H37" s="59" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B38" s="59"/>
+      <c r="C38" s="59"/>
+      <c r="D38" s="59"/>
+      <c r="E38" s="56">
         <v>4</v>
       </c>
-      <c r="F38" s="61" t="s">
+      <c r="F38" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="61" t="s">
-        <v>121</v>
-      </c>
-      <c r="H38" s="61"/>
-    </row>
-    <row r="39" spans="1:8" s="71" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B39" s="61"/>
-      <c r="C39" s="61"/>
-      <c r="D39" s="61"/>
+      <c r="G38" s="59" t="s">
+        <v>118</v>
+      </c>
+      <c r="H38" s="59" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" s="69" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B39" s="59"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="59"/>
       <c r="E39" s="54">
         <v>5</v>
       </c>
-      <c r="F39" s="61" t="s">
-        <v>146</v>
-      </c>
-      <c r="G39" s="61" t="s">
-        <v>147</v>
-      </c>
-      <c r="H39" s="61"/>
-    </row>
-    <row r="40" spans="1:8" s="71" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B40" s="78"/>
-      <c r="C40" s="78"/>
-      <c r="D40" s="78"/>
-      <c r="E40" s="57">
+      <c r="F39" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="G39" s="59" t="s">
+        <v>144</v>
+      </c>
+      <c r="H39" s="59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="76"/>
+      <c r="E40" s="56">
         <v>6</v>
       </c>
-      <c r="F40" s="61" t="s">
+      <c r="F40" s="59" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="59" t="s">
+        <v>121</v>
+      </c>
+      <c r="H40" s="76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B41" s="76"/>
+      <c r="C41" s="76"/>
+      <c r="D41" s="76"/>
+      <c r="E41" s="81">
+        <v>7</v>
+      </c>
+      <c r="F41" s="59" t="s">
+        <v>120</v>
+      </c>
+      <c r="G41" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="G40" s="61" t="s">
-        <v>124</v>
-      </c>
-      <c r="H40" s="78"/>
-    </row>
-    <row r="41" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B41" s="78"/>
-      <c r="C41" s="78"/>
-      <c r="D41" s="78"/>
-      <c r="E41" s="83">
-        <v>7</v>
-      </c>
-      <c r="F41" s="61" t="s">
-        <v>123</v>
-      </c>
-      <c r="G41" s="61" t="s">
-        <v>125</v>
-      </c>
-      <c r="H41" s="78"/>
-    </row>
-    <row r="42" spans="1:8" s="71" customFormat="1" ht="43.5" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B42" s="78"/>
-      <c r="C42" s="78"/>
-      <c r="D42" s="78"/>
+      <c r="H41" s="76"/>
+    </row>
+    <row r="42" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B42" s="76"/>
+      <c r="C42" s="76"/>
+      <c r="D42" s="76"/>
       <c r="E42" s="54">
         <v>8</v>
       </c>
-      <c r="F42" s="61" t="s">
-        <v>127</v>
-      </c>
-      <c r="G42" s="61" t="s">
-        <v>126</v>
-      </c>
-      <c r="H42" s="78"/>
-    </row>
-    <row r="43" spans="1:8" s="71" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="70" t="s">
+      <c r="F42" s="59" t="s">
+        <v>124</v>
+      </c>
+      <c r="G42" s="59" t="s">
+        <v>123</v>
+      </c>
+      <c r="H42" s="76" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="B43" s="70" t="s">
+      <c r="B43" s="68" t="s">
         <v>45</v>
       </c>
-      <c r="C43" s="70" t="s">
+      <c r="C43" s="68" t="s">
         <v>61</v>
       </c>
-      <c r="D43" s="70" t="s">
+      <c r="D43" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E43" s="54">
@@ -3122,106 +3163,106 @@
         <v>59</v>
       </c>
       <c r="G43" s="55"/>
-      <c r="H43" s="56"/>
-    </row>
-    <row r="44" spans="1:8" s="71" customFormat="1" ht="15" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B44" s="61"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="61"/>
-      <c r="E44" s="57">
+      <c r="H43" s="105"/>
+    </row>
+    <row r="44" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B44" s="59"/>
+      <c r="C44" s="59"/>
+      <c r="D44" s="59"/>
+      <c r="E44" s="56">
         <v>2</v>
       </c>
-      <c r="F44" s="61" t="s">
+      <c r="F44" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="61" t="s">
-        <v>128</v>
-      </c>
-      <c r="H44" s="61"/>
+      <c r="G44" s="59" t="s">
+        <v>125</v>
+      </c>
+      <c r="H44" s="59"/>
     </row>
     <row r="45" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B45" s="61"/>
-      <c r="C45" s="61"/>
-      <c r="D45" s="61"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="59"/>
       <c r="E45" s="54">
         <v>3</v>
       </c>
-      <c r="F45" s="58" t="s">
-        <v>129</v>
-      </c>
-      <c r="G45" s="58" t="s">
-        <v>135</v>
-      </c>
-      <c r="H45" s="72"/>
+      <c r="F45" s="57" t="s">
+        <v>126</v>
+      </c>
+      <c r="G45" s="57" t="s">
+        <v>132</v>
+      </c>
+      <c r="H45" s="70"/>
     </row>
     <row r="46" spans="1:8" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B46" s="61"/>
-      <c r="C46" s="61"/>
-      <c r="D46" s="61"/>
+      <c r="B46" s="59"/>
+      <c r="C46" s="59"/>
+      <c r="D46" s="59"/>
       <c r="E46" s="54">
         <v>4</v>
       </c>
-      <c r="F46" s="60" t="s">
-        <v>130</v>
-      </c>
-      <c r="G46" s="60" t="s">
-        <v>135</v>
-      </c>
-      <c r="H46" s="72"/>
+      <c r="F46" s="58" t="s">
+        <v>127</v>
+      </c>
+      <c r="G46" s="58" t="s">
+        <v>132</v>
+      </c>
+      <c r="H46" s="70"/>
     </row>
     <row r="47" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B47" s="61"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="61"/>
-      <c r="E47" s="57">
+      <c r="B47" s="59"/>
+      <c r="C47" s="59"/>
+      <c r="D47" s="59"/>
+      <c r="E47" s="56">
         <v>5</v>
       </c>
-      <c r="F47" s="58" t="s">
-        <v>131</v>
-      </c>
-      <c r="G47" s="58" t="s">
-        <v>136</v>
-      </c>
-      <c r="H47" s="72"/>
+      <c r="F47" s="57" t="s">
+        <v>128</v>
+      </c>
+      <c r="G47" s="57" t="s">
+        <v>133</v>
+      </c>
+      <c r="H47" s="70"/>
     </row>
     <row r="48" spans="1:8" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B48" s="61"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="61"/>
+      <c r="B48" s="59"/>
+      <c r="C48" s="59"/>
+      <c r="D48" s="59"/>
       <c r="E48" s="54">
         <v>6</v>
       </c>
-      <c r="F48" s="60" t="s">
-        <v>132</v>
-      </c>
-      <c r="G48" s="60" t="s">
-        <v>133</v>
-      </c>
-      <c r="H48" s="72"/>
+      <c r="F48" s="58" t="s">
+        <v>129</v>
+      </c>
+      <c r="G48" s="58" t="s">
+        <v>130</v>
+      </c>
+      <c r="H48" s="70"/>
     </row>
     <row r="49" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B49" s="61"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="61"/>
-      <c r="E49" s="57">
+      <c r="B49" s="59"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="59"/>
+      <c r="E49" s="56">
         <v>7</v>
       </c>
-      <c r="F49" s="58" t="s">
+      <c r="F49" s="57" t="s">
+        <v>131</v>
+      </c>
+      <c r="G49" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="G49" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="H49" s="72"/>
-    </row>
-    <row r="50" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B50" s="70" t="s">
+      <c r="H49" s="70"/>
+    </row>
+    <row r="50" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B50" s="68" t="s">
         <v>14</v>
       </c>
-      <c r="C50" s="70" t="s">
+      <c r="C50" s="68" t="s">
         <v>64</v>
       </c>
-      <c r="D50" s="70" t="s">
+      <c r="D50" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E50" s="54">
@@ -3231,61 +3272,61 @@
         <v>66</v>
       </c>
       <c r="G50" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="H50" s="56"/>
+        <v>145</v>
+      </c>
+      <c r="H50" s="105"/>
     </row>
     <row r="51" spans="2:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B51" s="61"/>
-      <c r="C51" s="61"/>
-      <c r="D51" s="61"/>
-      <c r="E51" s="57">
+      <c r="B51" s="59"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="59"/>
+      <c r="E51" s="56">
         <v>2</v>
       </c>
-      <c r="F51" s="60" t="s">
-        <v>149</v>
-      </c>
-      <c r="G51" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="H51" s="72"/>
+      <c r="F51" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="G51" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H51" s="70"/>
     </row>
     <row r="52" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B52" s="61"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="61"/>
+      <c r="B52" s="59"/>
+      <c r="C52" s="59"/>
+      <c r="D52" s="59"/>
       <c r="E52" s="54">
         <v>3</v>
       </c>
-      <c r="F52" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="G52" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="H52" s="72"/>
+      <c r="F52" s="57" t="s">
+        <v>148</v>
+      </c>
+      <c r="G52" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H52" s="70"/>
     </row>
     <row r="53" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B53" s="61"/>
-      <c r="C53" s="61"/>
-      <c r="D53" s="61"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="59"/>
       <c r="E53" s="54">
         <v>4</v>
       </c>
-      <c r="F53" s="60" t="s">
-        <v>154</v>
-      </c>
-      <c r="G53" s="60" t="s">
-        <v>153</v>
-      </c>
-      <c r="H53" s="72"/>
-    </row>
-    <row r="54" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B54" s="70"/>
-      <c r="C54" s="70" t="s">
+      <c r="F53" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="G53" s="58" t="s">
+        <v>150</v>
+      </c>
+      <c r="H53" s="70"/>
+    </row>
+    <row r="54" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B54" s="68"/>
+      <c r="C54" s="68" t="s">
         <v>65</v>
       </c>
-      <c r="D54" s="70" t="s">
+      <c r="D54" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E54" s="54">
@@ -3295,141 +3336,141 @@
         <v>67</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H54" s="56"/>
+        <v>152</v>
+      </c>
+      <c r="H54" s="105"/>
     </row>
     <row r="55" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B55" s="61"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="61"/>
+      <c r="B55" s="59"/>
+      <c r="C55" s="59"/>
+      <c r="D55" s="59"/>
       <c r="E55" s="54">
         <v>2</v>
       </c>
-      <c r="F55" s="60" t="s">
+      <c r="F55" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G55" s="58" t="s">
         <v>156</v>
       </c>
-      <c r="G55" s="60" t="s">
-        <v>159</v>
-      </c>
-      <c r="H55" s="72"/>
+      <c r="H55" s="70"/>
     </row>
     <row r="56" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B56" s="61"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="61"/>
-      <c r="E56" s="57">
+      <c r="B56" s="59"/>
+      <c r="C56" s="59"/>
+      <c r="D56" s="59"/>
+      <c r="E56" s="56">
         <v>3</v>
       </c>
-      <c r="F56" s="58" t="s">
+      <c r="F56" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G56" s="57" t="s">
         <v>157</v>
       </c>
-      <c r="G56" s="58" t="s">
-        <v>160</v>
-      </c>
-      <c r="H56" s="72"/>
+      <c r="H56" s="70"/>
     </row>
     <row r="57" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B57" s="61"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="61"/>
+      <c r="B57" s="59"/>
+      <c r="C57" s="59"/>
+      <c r="D57" s="59"/>
       <c r="E57" s="54">
         <v>4</v>
       </c>
-      <c r="F57" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="G57" s="60" t="s">
-        <v>171</v>
-      </c>
-      <c r="H57" s="72"/>
+      <c r="F57" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G57" s="58" t="s">
+        <v>168</v>
+      </c>
+      <c r="H57" s="70"/>
     </row>
     <row r="58" spans="2:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B58" s="61"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="61"/>
-      <c r="E58" s="57">
+      <c r="B58" s="59"/>
+      <c r="C58" s="59"/>
+      <c r="D58" s="59"/>
+      <c r="E58" s="56">
         <v>5</v>
       </c>
-      <c r="F58" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="G58" s="58" t="s">
-        <v>172</v>
-      </c>
-      <c r="H58" s="72"/>
-    </row>
-    <row r="59" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B59" s="70" t="s">
+      <c r="F58" s="57" t="s">
+        <v>170</v>
+      </c>
+      <c r="G58" s="57" t="s">
+        <v>169</v>
+      </c>
+      <c r="H58" s="70"/>
+    </row>
+    <row r="59" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B59" s="68" t="s">
         <v>47</v>
       </c>
-      <c r="C59" s="70" t="s">
+      <c r="C59" s="68" t="s">
         <v>68</v>
       </c>
-      <c r="D59" s="70" t="s">
+      <c r="D59" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E59" s="54">
         <v>1</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="H59" s="56"/>
+        <v>145</v>
+      </c>
+      <c r="H59" s="105"/>
     </row>
     <row r="60" spans="2:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B60" s="61"/>
-      <c r="D60" s="61"/>
-      <c r="E60" s="57">
+      <c r="B60" s="59"/>
+      <c r="D60" s="59"/>
+      <c r="E60" s="56">
         <v>2</v>
       </c>
-      <c r="F60" s="60" t="s">
-        <v>165</v>
-      </c>
-      <c r="G60" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="H60" s="72"/>
+      <c r="F60" s="58" t="s">
+        <v>162</v>
+      </c>
+      <c r="G60" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H60" s="70"/>
     </row>
     <row r="61" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B61" s="61"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="61"/>
+      <c r="B61" s="59"/>
+      <c r="C61" s="59"/>
+      <c r="D61" s="59"/>
       <c r="E61" s="54">
         <v>3</v>
       </c>
-      <c r="F61" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="G61" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="H61" s="72"/>
+      <c r="F61" s="57" t="s">
+        <v>163</v>
+      </c>
+      <c r="G61" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H61" s="70"/>
     </row>
     <row r="62" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B62" s="61"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="61"/>
-      <c r="E62" s="57">
+      <c r="B62" s="59"/>
+      <c r="C62" s="59"/>
+      <c r="D62" s="59"/>
+      <c r="E62" s="56">
         <v>4</v>
       </c>
-      <c r="F62" s="60" t="s">
-        <v>167</v>
-      </c>
-      <c r="G62" s="60" t="s">
-        <v>168</v>
-      </c>
-      <c r="H62" s="72"/>
-    </row>
-    <row r="63" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B63" s="70"/>
-      <c r="C63" s="70" t="s">
+      <c r="F62" s="58" t="s">
+        <v>164</v>
+      </c>
+      <c r="G62" s="58" t="s">
+        <v>165</v>
+      </c>
+      <c r="H62" s="70"/>
+    </row>
+    <row r="63" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B63" s="68"/>
+      <c r="C63" s="68" t="s">
         <v>69</v>
       </c>
-      <c r="D63" s="70" t="s">
+      <c r="D63" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E63" s="54">
@@ -3439,142 +3480,142 @@
         <v>67</v>
       </c>
       <c r="G63" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H63" s="56"/>
+        <v>152</v>
+      </c>
+      <c r="H63" s="105"/>
     </row>
     <row r="64" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B64" s="61"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="61"/>
-      <c r="E64" s="57">
+      <c r="B64" s="59"/>
+      <c r="C64" s="59"/>
+      <c r="D64" s="59"/>
+      <c r="E64" s="56">
         <v>2</v>
       </c>
-      <c r="F64" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="G64" s="60" t="s">
-        <v>169</v>
-      </c>
-      <c r="H64" s="72"/>
+      <c r="F64" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G64" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="H64" s="70"/>
     </row>
     <row r="65" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B65" s="61"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="61"/>
+      <c r="B65" s="59"/>
+      <c r="C65" s="59"/>
+      <c r="D65" s="59"/>
       <c r="E65" s="54">
         <v>3</v>
       </c>
-      <c r="F65" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="G65" s="58" t="s">
-        <v>170</v>
-      </c>
-      <c r="H65" s="72"/>
+      <c r="F65" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G65" s="57" t="s">
+        <v>167</v>
+      </c>
+      <c r="H65" s="70"/>
     </row>
     <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B66" s="61"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="61"/>
-      <c r="E66" s="57">
+      <c r="B66" s="59"/>
+      <c r="C66" s="59"/>
+      <c r="D66" s="59"/>
+      <c r="E66" s="56">
         <v>4</v>
       </c>
-      <c r="F66" s="60" t="s">
+      <c r="F66" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G66" s="58" t="s">
         <v>158</v>
       </c>
-      <c r="G66" s="60" t="s">
-        <v>161</v>
-      </c>
-      <c r="H66" s="72"/>
+      <c r="H66" s="70"/>
     </row>
     <row r="67" spans="2:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B67" s="78"/>
-      <c r="C67" s="61"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="83">
+      <c r="B67" s="76"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="59"/>
+      <c r="E67" s="81">
         <v>5</v>
       </c>
-      <c r="F67" s="58" t="s">
-        <v>162</v>
-      </c>
-      <c r="G67" s="58" t="s">
-        <v>163</v>
-      </c>
-      <c r="H67" s="72"/>
-    </row>
-    <row r="68" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B68" s="70" t="s">
+      <c r="F67" s="57" t="s">
+        <v>159</v>
+      </c>
+      <c r="G67" s="57" t="s">
+        <v>160</v>
+      </c>
+      <c r="H67" s="70"/>
+    </row>
+    <row r="68" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B68" s="68" t="s">
         <v>46</v>
       </c>
-      <c r="C68" s="70" t="s">
+      <c r="C68" s="68" t="s">
         <v>70</v>
       </c>
-      <c r="D68" s="70" t="s">
+      <c r="D68" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E68" s="54">
         <v>1</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="G68" s="55" t="s">
-        <v>148</v>
-      </c>
-      <c r="H68" s="56"/>
+        <v>145</v>
+      </c>
+      <c r="H68" s="105"/>
     </row>
     <row r="69" spans="2:8" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B69" s="61"/>
-      <c r="C69" s="61"/>
-      <c r="D69" s="61"/>
-      <c r="E69" s="57">
+      <c r="B69" s="59"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="59"/>
+      <c r="E69" s="56">
         <v>2</v>
       </c>
-      <c r="F69" s="60" t="s">
-        <v>174</v>
-      </c>
-      <c r="G69" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="H69" s="72"/>
+      <c r="F69" s="58" t="s">
+        <v>171</v>
+      </c>
+      <c r="G69" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="H69" s="70"/>
     </row>
     <row r="70" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B70" s="61"/>
-      <c r="C70" s="61"/>
-      <c r="D70" s="61"/>
+      <c r="B70" s="59"/>
+      <c r="C70" s="59"/>
+      <c r="D70" s="59"/>
       <c r="E70" s="54">
         <v>3</v>
       </c>
-      <c r="F70" s="58" t="s">
-        <v>175</v>
-      </c>
-      <c r="G70" s="60" t="s">
-        <v>152</v>
-      </c>
-      <c r="H70" s="72"/>
+      <c r="F70" s="57" t="s">
+        <v>172</v>
+      </c>
+      <c r="G70" s="58" t="s">
+        <v>149</v>
+      </c>
+      <c r="H70" s="70"/>
     </row>
     <row r="71" spans="2:8" ht="72" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="57">
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="56">
         <v>4</v>
       </c>
-      <c r="F71" s="60" t="s">
-        <v>189</v>
-      </c>
-      <c r="G71" s="60" t="s">
-        <v>190</v>
-      </c>
-      <c r="H71" s="72"/>
-    </row>
-    <row r="72" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B72" s="70"/>
-      <c r="C72" s="70" t="s">
+      <c r="F71" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="G71" s="58" t="s">
+        <v>187</v>
+      </c>
+      <c r="H71" s="70"/>
+    </row>
+    <row r="72" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B72" s="68"/>
+      <c r="C72" s="68" t="s">
         <v>71</v>
       </c>
-      <c r="D72" s="70" t="s">
+      <c r="D72" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E72" s="54">
@@ -3584,271 +3625,271 @@
         <v>67</v>
       </c>
       <c r="G72" s="55" t="s">
-        <v>155</v>
-      </c>
-      <c r="H72" s="56"/>
+        <v>152</v>
+      </c>
+      <c r="H72" s="105"/>
     </row>
     <row r="73" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B73" s="61"/>
-      <c r="C73" s="61"/>
-      <c r="D73" s="61"/>
-      <c r="E73" s="57">
+      <c r="B73" s="59"/>
+      <c r="C73" s="59"/>
+      <c r="D73" s="59"/>
+      <c r="E73" s="56">
         <v>2</v>
       </c>
-      <c r="F73" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="G73" s="60" t="s">
-        <v>176</v>
-      </c>
-      <c r="H73" s="72"/>
+      <c r="F73" s="58" t="s">
+        <v>153</v>
+      </c>
+      <c r="G73" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="H73" s="70"/>
     </row>
     <row r="74" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B74" s="61"/>
-      <c r="C74" s="61"/>
-      <c r="D74" s="61"/>
+      <c r="B74" s="59"/>
+      <c r="C74" s="59"/>
+      <c r="D74" s="59"/>
       <c r="E74" s="54">
         <v>3</v>
       </c>
-      <c r="F74" s="58" t="s">
-        <v>157</v>
-      </c>
-      <c r="G74" s="58" t="s">
+      <c r="F74" s="57" t="s">
+        <v>154</v>
+      </c>
+      <c r="G74" s="57" t="s">
+        <v>174</v>
+      </c>
+      <c r="H74" s="70"/>
+    </row>
+    <row r="75" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="B75" s="59"/>
+      <c r="C75" s="59"/>
+      <c r="D75" s="59"/>
+      <c r="E75" s="56">
+        <v>4</v>
+      </c>
+      <c r="F75" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="G75" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="H75" s="70"/>
+    </row>
+    <row r="76" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B76" s="76"/>
+      <c r="C76" s="76"/>
+      <c r="D76" s="76"/>
+      <c r="E76" s="81">
+        <v>5</v>
+      </c>
+      <c r="F76" s="57" t="s">
+        <v>176</v>
+      </c>
+      <c r="G76" s="57" t="s">
         <v>177</v>
       </c>
-      <c r="H74" s="72"/>
-    </row>
-    <row r="75" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B75" s="61"/>
-      <c r="C75" s="61"/>
-      <c r="D75" s="61"/>
-      <c r="E75" s="57">
-        <v>4</v>
-      </c>
-      <c r="F75" s="60" t="s">
-        <v>158</v>
-      </c>
-      <c r="G75" s="58" t="s">
-        <v>178</v>
-      </c>
-      <c r="H75" s="72"/>
-    </row>
-    <row r="76" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B76" s="78"/>
-      <c r="C76" s="78"/>
-      <c r="D76" s="78"/>
-      <c r="E76" s="83">
-        <v>5</v>
-      </c>
-      <c r="F76" s="58" t="s">
-        <v>179</v>
-      </c>
-      <c r="G76" s="58" t="s">
-        <v>180</v>
-      </c>
-      <c r="H76" s="72"/>
-    </row>
-    <row r="77" spans="2:8" s="71" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B77" s="70"/>
-      <c r="C77" s="70" t="s">
+      <c r="H76" s="70"/>
+    </row>
+    <row r="77" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B77" s="68"/>
+      <c r="C77" s="68" t="s">
         <v>72</v>
       </c>
-      <c r="D77" s="70" t="s">
+      <c r="D77" s="68" t="s">
         <v>34</v>
       </c>
       <c r="E77" s="54">
         <v>1</v>
       </c>
       <c r="F77" s="55" t="s">
+        <v>178</v>
+      </c>
+      <c r="G77" s="55" t="s">
         <v>181</v>
       </c>
-      <c r="G77" s="55" t="s">
-        <v>184</v>
-      </c>
-      <c r="H77" s="56"/>
+      <c r="H77" s="105"/>
     </row>
     <row r="78" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B78" s="61"/>
-      <c r="C78" s="61"/>
-      <c r="D78" s="61"/>
-      <c r="E78" s="57">
+      <c r="B78" s="59"/>
+      <c r="C78" s="59"/>
+      <c r="D78" s="59"/>
+      <c r="E78" s="56">
         <v>2</v>
       </c>
-      <c r="F78" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="G78" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="H78" s="72"/>
+      <c r="F78" s="57" t="s">
+        <v>179</v>
+      </c>
+      <c r="G78" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="H78" s="70"/>
     </row>
     <row r="79" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
-      <c r="B79" s="61"/>
-      <c r="C79" s="61"/>
-      <c r="D79" s="61"/>
+      <c r="B79" s="59"/>
+      <c r="C79" s="59"/>
+      <c r="D79" s="59"/>
       <c r="E79" s="54">
         <v>3</v>
       </c>
-      <c r="F79" s="60" t="s">
-        <v>183</v>
-      </c>
-      <c r="G79" s="58" t="s">
-        <v>184</v>
-      </c>
-      <c r="H79" s="72"/>
+      <c r="F79" s="58" t="s">
+        <v>180</v>
+      </c>
+      <c r="G79" s="57" t="s">
+        <v>181</v>
+      </c>
+      <c r="H79" s="70"/>
     </row>
     <row r="80" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B80" s="61"/>
-      <c r="C80" s="61"/>
-      <c r="D80" s="61"/>
-      <c r="E80" s="57"/>
-      <c r="F80" s="58"/>
-      <c r="G80" s="58"/>
-      <c r="H80" s="72"/>
+      <c r="B80" s="59"/>
+      <c r="C80" s="59"/>
+      <c r="D80" s="59"/>
+      <c r="E80" s="56"/>
+      <c r="F80" s="57"/>
+      <c r="G80" s="57"/>
+      <c r="H80" s="70"/>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B81" s="61"/>
-      <c r="C81" s="61"/>
-      <c r="D81" s="61"/>
+      <c r="B81" s="59"/>
+      <c r="C81" s="59"/>
+      <c r="D81" s="59"/>
       <c r="E81" s="54"/>
-      <c r="F81" s="60"/>
-      <c r="G81" s="60"/>
-      <c r="H81" s="72"/>
+      <c r="F81" s="58"/>
+      <c r="G81" s="58"/>
+      <c r="H81" s="70"/>
     </row>
     <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B82" s="61"/>
-      <c r="C82" s="61"/>
-      <c r="D82" s="61"/>
-      <c r="E82" s="57"/>
-      <c r="F82" s="58"/>
-      <c r="G82" s="58"/>
-      <c r="H82" s="72"/>
+      <c r="B82" s="59"/>
+      <c r="C82" s="59"/>
+      <c r="D82" s="59"/>
+      <c r="E82" s="56"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="57"/>
+      <c r="H82" s="70"/>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B83" s="61"/>
-      <c r="C83" s="61"/>
-      <c r="D83" s="61"/>
+      <c r="B83" s="59"/>
+      <c r="C83" s="59"/>
+      <c r="D83" s="59"/>
       <c r="E83" s="54"/>
-      <c r="F83" s="60"/>
-      <c r="G83" s="60"/>
-      <c r="H83" s="72"/>
+      <c r="F83" s="58"/>
+      <c r="G83" s="58"/>
+      <c r="H83" s="70"/>
     </row>
     <row r="84" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B84" s="61"/>
-      <c r="C84" s="61"/>
-      <c r="D84" s="61"/>
-      <c r="E84" s="57"/>
-      <c r="F84" s="58"/>
-      <c r="G84" s="58"/>
-      <c r="H84" s="72"/>
+      <c r="B84" s="59"/>
+      <c r="C84" s="59"/>
+      <c r="D84" s="59"/>
+      <c r="E84" s="56"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="57"/>
+      <c r="H84" s="70"/>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B85" s="61"/>
-      <c r="C85" s="61"/>
-      <c r="D85" s="61"/>
+      <c r="B85" s="59"/>
+      <c r="C85" s="59"/>
+      <c r="D85" s="59"/>
       <c r="E85" s="54"/>
-      <c r="F85" s="60"/>
-      <c r="G85" s="60"/>
-      <c r="H85" s="72"/>
+      <c r="F85" s="58"/>
+      <c r="G85" s="58"/>
+      <c r="H85" s="70"/>
     </row>
     <row r="86" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B86" s="61"/>
-      <c r="C86" s="61"/>
-      <c r="D86" s="61"/>
-      <c r="E86" s="57"/>
-      <c r="F86" s="58"/>
-      <c r="G86" s="58"/>
-      <c r="H86" s="72"/>
+      <c r="B86" s="59"/>
+      <c r="C86" s="59"/>
+      <c r="D86" s="59"/>
+      <c r="E86" s="56"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="57"/>
+      <c r="H86" s="70"/>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B87" s="61"/>
-      <c r="C87" s="61"/>
-      <c r="D87" s="61"/>
+      <c r="B87" s="59"/>
+      <c r="C87" s="59"/>
+      <c r="D87" s="59"/>
       <c r="E87" s="54"/>
-      <c r="F87" s="60"/>
-      <c r="G87" s="60"/>
-      <c r="H87" s="72"/>
+      <c r="F87" s="58"/>
+      <c r="G87" s="58"/>
+      <c r="H87" s="70"/>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B88" s="61"/>
-      <c r="C88" s="61"/>
-      <c r="D88" s="61"/>
-      <c r="E88" s="57"/>
-      <c r="F88" s="58"/>
-      <c r="G88" s="58"/>
-      <c r="H88" s="72"/>
+      <c r="B88" s="59"/>
+      <c r="C88" s="59"/>
+      <c r="D88" s="59"/>
+      <c r="E88" s="56"/>
+      <c r="F88" s="57"/>
+      <c r="G88" s="57"/>
+      <c r="H88" s="70"/>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B89" s="61"/>
-      <c r="C89" s="61"/>
-      <c r="D89" s="61"/>
-      <c r="E89" s="57"/>
-      <c r="F89" s="60"/>
-      <c r="G89" s="60"/>
-      <c r="H89" s="72"/>
+      <c r="B89" s="59"/>
+      <c r="C89" s="59"/>
+      <c r="D89" s="59"/>
+      <c r="E89" s="56"/>
+      <c r="F89" s="58"/>
+      <c r="G89" s="58"/>
+      <c r="H89" s="70"/>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B90" s="61"/>
-      <c r="C90" s="61"/>
-      <c r="D90" s="61"/>
-      <c r="E90" s="57"/>
-      <c r="F90" s="58"/>
-      <c r="G90" s="58"/>
-      <c r="H90" s="72"/>
+      <c r="B90" s="59"/>
+      <c r="C90" s="59"/>
+      <c r="D90" s="59"/>
+      <c r="E90" s="56"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="57"/>
+      <c r="H90" s="70"/>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B91" s="61"/>
-      <c r="C91" s="61"/>
-      <c r="D91" s="61"/>
-      <c r="E91" s="57"/>
-      <c r="F91" s="60"/>
-      <c r="G91" s="60"/>
-      <c r="H91" s="72"/>
+      <c r="B91" s="59"/>
+      <c r="C91" s="59"/>
+      <c r="D91" s="59"/>
+      <c r="E91" s="56"/>
+      <c r="F91" s="58"/>
+      <c r="G91" s="58"/>
+      <c r="H91" s="70"/>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B92" s="61"/>
-      <c r="C92" s="61"/>
-      <c r="D92" s="61"/>
-      <c r="E92" s="57"/>
-      <c r="F92" s="58"/>
-      <c r="G92" s="58"/>
-      <c r="H92" s="72"/>
+      <c r="B92" s="59"/>
+      <c r="C92" s="59"/>
+      <c r="D92" s="59"/>
+      <c r="E92" s="56"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="57"/>
+      <c r="H92" s="70"/>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B93" s="61"/>
-      <c r="C93" s="61"/>
-      <c r="D93" s="61"/>
-      <c r="E93" s="57"/>
-      <c r="F93" s="60"/>
-      <c r="G93" s="60"/>
-      <c r="H93" s="72"/>
+      <c r="B93" s="59"/>
+      <c r="C93" s="59"/>
+      <c r="D93" s="59"/>
+      <c r="E93" s="56"/>
+      <c r="F93" s="58"/>
+      <c r="G93" s="58"/>
+      <c r="H93" s="70"/>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B94" s="61"/>
-      <c r="C94" s="61"/>
-      <c r="D94" s="61"/>
-      <c r="E94" s="57"/>
-      <c r="F94" s="58"/>
-      <c r="G94" s="58"/>
-      <c r="H94" s="72"/>
+      <c r="B94" s="59"/>
+      <c r="C94" s="59"/>
+      <c r="D94" s="59"/>
+      <c r="E94" s="56"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="57"/>
+      <c r="H94" s="70"/>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B95" s="61"/>
-      <c r="C95" s="61"/>
-      <c r="D95" s="61"/>
-      <c r="E95" s="57"/>
-      <c r="F95" s="60"/>
-      <c r="G95" s="60"/>
-      <c r="H95" s="72"/>
+      <c r="B95" s="59"/>
+      <c r="C95" s="59"/>
+      <c r="D95" s="59"/>
+      <c r="E95" s="56"/>
+      <c r="F95" s="58"/>
+      <c r="G95" s="58"/>
+      <c r="H95" s="70"/>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.15">
-      <c r="B96" s="61"/>
-      <c r="C96" s="61"/>
-      <c r="D96" s="61"/>
-      <c r="E96" s="57"/>
-      <c r="F96" s="58"/>
-      <c r="G96" s="58"/>
-      <c r="H96" s="72"/>
+      <c r="B96" s="59"/>
+      <c r="C96" s="59"/>
+      <c r="D96" s="59"/>
+      <c r="E96" s="56"/>
+      <c r="F96" s="57"/>
+      <c r="G96" s="57"/>
+      <c r="H96" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3884,7 +3925,7 @@
   <dimension ref="A1:E17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3897,110 +3938,110 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="77" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="77" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="79" t="s">
+      <c r="D1" s="77" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="79" t="s">
+      <c r="E1" s="77" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B2" s="80" t="s">
+      <c r="B2" s="78" t="s">
         <v>14</v>
       </c>
-      <c r="C2" s="81" t="s">
+      <c r="C2" s="79" t="s">
         <v>36</v>
       </c>
-      <c r="D2" s="81" t="s">
+      <c r="D2" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="E2" s="81" t="s">
+      <c r="E2" s="79" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B3" s="80" t="s">
+      <c r="B3" s="78" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="81" t="s">
+      <c r="C3" s="79" t="s">
         <v>33</v>
       </c>
-      <c r="D3" s="81" t="s">
+      <c r="D3" s="79" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="79" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B4" s="80" t="s">
+      <c r="B4" s="78" t="s">
         <v>62</v>
       </c>
-      <c r="C4" s="81" t="s">
+      <c r="C4" s="79" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="81" t="s">
+      <c r="D4" s="79" t="s">
         <v>18</v>
       </c>
-      <c r="E4" s="81" t="s">
+      <c r="E4" s="79" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="B5" s="80" t="s">
+      <c r="B5" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="C5" s="81" t="s">
+      <c r="C5" s="79" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="81" t="s">
+      <c r="D5" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="79" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
-      <c r="B6" s="81" t="s">
+      <c r="B6" s="79" t="s">
         <v>19</v>
       </c>
-      <c r="C6" s="81"/>
-      <c r="D6" s="81" t="s">
+      <c r="C6" s="79"/>
+      <c r="D6" s="79" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="81"/>
+      <c r="E6" s="79"/>
     </row>
     <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
-      <c r="B7" s="81" t="s">
+      <c r="B7" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="81"/>
-      <c r="D7" s="81"/>
-      <c r="E7" s="81"/>
+      <c r="C7" s="79"/>
+      <c r="D7" s="79"/>
+      <c r="E7" s="79"/>
     </row>
     <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
-      <c r="B8" s="81" t="s">
+      <c r="B8" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="82"/>
-      <c r="D8" s="82"/>
-      <c r="E8" s="82"/>
+      <c r="C8" s="80"/>
+      <c r="D8" s="80"/>
+      <c r="E8" s="80"/>
     </row>
     <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
-      <c r="B9" s="82"/>
-      <c r="C9" s="82"/>
-      <c r="D9" s="82"/>
-      <c r="E9" s="82"/>
+      <c r="B9" s="80"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="80"/>
+      <c r="E9" s="80"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>

--- a/01_doc/test_design/测试用例_eOrder.xlsx
+++ b/01_doc/test_design/测试用例_eOrder.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="258" uniqueCount="191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="192">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -460,9 +460,6 @@
     <t>符合折扣计算规则</t>
   </si>
   <si>
-    <t>系统提示提交状态信息</t>
-  </si>
-  <si>
     <t>确定按钮
 1.提交成功
 2.提交失败</t>
@@ -690,10 +687,6 @@
 4.订单详情页面，把某一个菜品数量为1的菜品数量更新为0</t>
   </si>
   <si>
-    <t>1.系统跳转到确认订单页面
-2.下单按钮灰掉？</t>
-  </si>
-  <si>
     <t>检查创建新用户按钮的功能
 1.完整按照规则填好各个字段
 2.只填某一个
@@ -715,6 +708,19 @@
   </si>
   <si>
     <t>翻页功能：上下翻页</t>
+  </si>
+  <si>
+    <t>1.系统提示提交状态信息
+2.购物车被清空</t>
+  </si>
+  <si>
+    <t>1.系统跳转到确认订单页面
+2.系统返回菜单首页</t>
+  </si>
+  <si>
+    <t>角色管理界面检查
+1. UI
+2.界面的收缩功能</t>
   </si>
 </sst>
 </file>
@@ -1425,6 +1431,12 @@
     <xf numFmtId="0" fontId="21" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="14" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1490,12 +1502,6 @@
     </xf>
     <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="5" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
@@ -2025,15 +2031,15 @@
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:13" ht="21" x14ac:dyDescent="0.3">
-      <c r="A2" s="92" t="s">
+      <c r="A2" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="93"/>
-      <c r="C2" s="93"/>
-      <c r="D2" s="93"/>
-      <c r="E2" s="93"/>
-      <c r="F2" s="93"/>
-      <c r="G2" s="94"/>
+      <c r="B2" s="95"/>
+      <c r="C2" s="95"/>
+      <c r="D2" s="95"/>
+      <c r="E2" s="95"/>
+      <c r="F2" s="95"/>
+      <c r="G2" s="96"/>
     </row>
     <row r="3" spans="1:13" ht="18" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -2080,13 +2086,13 @@
       </c>
     </row>
     <row r="5" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A5" s="95"/>
-      <c r="B5" s="96"/>
-      <c r="C5" s="96"/>
-      <c r="D5" s="96"/>
-      <c r="E5" s="96"/>
-      <c r="F5" s="96"/>
-      <c r="G5" s="97"/>
+      <c r="A5" s="97"/>
+      <c r="B5" s="98"/>
+      <c r="C5" s="98"/>
+      <c r="D5" s="98"/>
+      <c r="E5" s="98"/>
+      <c r="F5" s="98"/>
+      <c r="G5" s="99"/>
       <c r="I5" s="22"/>
       <c r="J5" s="22"/>
       <c r="K5" s="22"/>
@@ -2094,13 +2100,13 @@
       <c r="M5" s="48"/>
     </row>
     <row r="6" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A6" s="95"/>
-      <c r="B6" s="96"/>
-      <c r="C6" s="96"/>
-      <c r="D6" s="96"/>
-      <c r="E6" s="96"/>
-      <c r="F6" s="96"/>
-      <c r="G6" s="97"/>
+      <c r="A6" s="97"/>
+      <c r="B6" s="98"/>
+      <c r="C6" s="98"/>
+      <c r="D6" s="98"/>
+      <c r="E6" s="98"/>
+      <c r="F6" s="98"/>
+      <c r="G6" s="99"/>
       <c r="I6" s="23"/>
       <c r="J6" s="23"/>
       <c r="K6" s="24"/>
@@ -2108,15 +2114,15 @@
       <c r="M6" s="49"/>
     </row>
     <row r="7" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A7" s="98" t="s">
+      <c r="A7" s="100" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="99"/>
-      <c r="D7" s="99"/>
-      <c r="E7" s="99"/>
-      <c r="F7" s="99"/>
-      <c r="G7" s="100"/>
+      <c r="B7" s="101"/>
+      <c r="C7" s="101"/>
+      <c r="D7" s="101"/>
+      <c r="E7" s="101"/>
+      <c r="F7" s="101"/>
+      <c r="G7" s="102"/>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
       <c r="K7" s="25"/>
@@ -2124,44 +2130,44 @@
       <c r="M7" s="50"/>
     </row>
     <row r="8" spans="1:13" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="A8" s="95"/>
-      <c r="B8" s="96"/>
-      <c r="C8" s="96"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="96"/>
-      <c r="F8" s="96"/>
-      <c r="G8" s="97"/>
+      <c r="A8" s="97"/>
+      <c r="B8" s="98"/>
+      <c r="C8" s="98"/>
+      <c r="D8" s="98"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="98"/>
+      <c r="G8" s="99"/>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A9" s="89" t="s">
+      <c r="A9" s="91" t="s">
         <v>0</v>
       </c>
-      <c r="B9" s="90"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="90"/>
-      <c r="E9" s="90"/>
-      <c r="F9" s="90"/>
-      <c r="G9" s="91"/>
+      <c r="B9" s="92"/>
+      <c r="C9" s="92"/>
+      <c r="D9" s="92"/>
+      <c r="E9" s="92"/>
+      <c r="F9" s="92"/>
+      <c r="G9" s="93"/>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="A10" s="89"/>
-      <c r="B10" s="90"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="90"/>
-      <c r="E10" s="90"/>
-      <c r="F10" s="90"/>
-      <c r="G10" s="91"/>
+      <c r="A10" s="91"/>
+      <c r="B10" s="92"/>
+      <c r="C10" s="92"/>
+      <c r="D10" s="92"/>
+      <c r="E10" s="92"/>
+      <c r="F10" s="92"/>
+      <c r="G10" s="93"/>
     </row>
     <row r="11" spans="1:13" ht="18.75" x14ac:dyDescent="0.25">
-      <c r="A11" s="86" t="s">
+      <c r="A11" s="88" t="s">
         <v>1</v>
       </c>
-      <c r="B11" s="87"/>
-      <c r="C11" s="87"/>
-      <c r="D11" s="87"/>
-      <c r="E11" s="87"/>
-      <c r="F11" s="87"/>
-      <c r="G11" s="88"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="89"/>
+      <c r="D11" s="89"/>
+      <c r="E11" s="89"/>
+      <c r="F11" s="89"/>
+      <c r="G11" s="90"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="17"/>
@@ -2227,12 +2233,12 @@
       <c r="G18" s="18"/>
     </row>
     <row r="19" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A19" s="84"/>
-      <c r="B19" s="85"/>
-      <c r="C19" s="85"/>
-      <c r="D19" s="85"/>
-      <c r="E19" s="85"/>
-      <c r="F19" s="85"/>
+      <c r="A19" s="86"/>
+      <c r="B19" s="87"/>
+      <c r="C19" s="87"/>
+      <c r="D19" s="87"/>
+      <c r="E19" s="87"/>
+      <c r="F19" s="87"/>
       <c r="G19" s="21"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -2346,8 +2352,8 @@
     <row r="32" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A32" s="30"/>
       <c r="B32" s="53"/>
-      <c r="C32" s="101"/>
-      <c r="D32" s="101"/>
+      <c r="C32" s="103"/>
+      <c r="D32" s="103"/>
       <c r="E32" s="34"/>
       <c r="F32" s="34"/>
       <c r="G32" s="35"/>
@@ -2355,8 +2361,8 @@
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="19"/>
       <c r="B33" s="53"/>
-      <c r="C33" s="83"/>
-      <c r="D33" s="83"/>
+      <c r="C33" s="85"/>
+      <c r="D33" s="85"/>
       <c r="E33" s="27"/>
       <c r="F33" s="36"/>
       <c r="G33" s="37"/>
@@ -2406,8 +2412,8 @@
   <dimension ref="A1:H96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A63" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K28" sqref="K28"/>
+      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
@@ -2424,14 +2430,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="102"/>
-      <c r="C1" s="102"/>
+      <c r="B1" s="104"/>
+      <c r="C1" s="104"/>
       <c r="D1" s="60"/>
-      <c r="E1" s="103" t="s">
+      <c r="E1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="102"/>
-      <c r="G1" s="104"/>
+      <c r="F1" s="104"/>
+      <c r="G1" s="106"/>
       <c r="H1" s="61"/>
     </row>
     <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2480,7 +2486,9 @@
         <v>39</v>
       </c>
       <c r="G3" s="55"/>
-      <c r="H3" s="105"/>
+      <c r="H3" s="83" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="4" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
@@ -2496,7 +2504,7 @@
       <c r="G4" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="106" t="s">
+      <c r="H4" s="84" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2513,7 +2521,7 @@
       <c r="G5" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="106" t="s">
+      <c r="H5" s="84" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2528,10 +2536,10 @@
         <v>76</v>
       </c>
       <c r="G6" s="57" t="s">
-        <v>188</v>
-      </c>
-      <c r="H6" s="106" t="s">
-        <v>74</v>
+        <v>186</v>
+      </c>
+      <c r="H6" s="84" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:8" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2542,13 +2550,13 @@
         <v>5</v>
       </c>
       <c r="F7" s="57" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G7" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="106" t="s">
-        <v>74</v>
+      <c r="H7" s="84" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="8" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2559,12 +2567,12 @@
         <v>6</v>
       </c>
       <c r="F8" s="57" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="G8" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="106" t="s">
+      <c r="H8" s="84" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2581,7 +2589,7 @@
       <c r="G9" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="106" t="s">
+      <c r="H9" s="84" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2598,7 +2606,7 @@
       <c r="G10" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="106" t="s">
+      <c r="H10" s="84" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2621,7 +2629,7 @@
       <c r="G11" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="83" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2638,7 +2646,7 @@
       <c r="G12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="106" t="s">
+      <c r="H12" s="84" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2655,7 +2663,7 @@
       <c r="G13" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="106" t="s">
+      <c r="H13" s="84" t="s">
         <v>74</v>
       </c>
     </row>
@@ -2670,9 +2678,9 @@
         <v>87</v>
       </c>
       <c r="G14" s="58" t="s">
-        <v>182</v>
-      </c>
-      <c r="H14" s="106"/>
+        <v>181</v>
+      </c>
+      <c r="H14" s="84"/>
     </row>
     <row r="15" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B15" s="59"/>
@@ -2682,12 +2690,12 @@
         <v>5</v>
       </c>
       <c r="F15" s="58" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G15" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="106" t="s">
+      <c r="H15" s="84" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2744,7 +2752,7 @@
       <c r="G18" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="105" t="s">
+      <c r="H18" s="83" t="s">
         <v>35</v>
       </c>
     </row>
@@ -2762,7 +2770,7 @@
         <v>100</v>
       </c>
       <c r="H19" s="70" t="s">
-        <v>36</v>
+        <v>74</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -2791,9 +2799,11 @@
         <v>99</v>
       </c>
       <c r="G21" s="57" t="s">
-        <v>136</v>
-      </c>
-      <c r="H21" s="70"/>
+        <v>135</v>
+      </c>
+      <c r="H21" s="70" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="22" spans="1:8" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B22" s="59"/>
@@ -2806,9 +2816,11 @@
         <v>96</v>
       </c>
       <c r="G22" s="57" t="s">
-        <v>137</v>
-      </c>
-      <c r="H22" s="70"/>
+        <v>136</v>
+      </c>
+      <c r="H22" s="70" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="59"/>
@@ -2823,7 +2835,9 @@
       <c r="G23" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="70"/>
+      <c r="H23" s="70" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B24" s="59"/>
@@ -2838,7 +2852,9 @@
       <c r="G24" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="70"/>
+      <c r="H24" s="70" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="25" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59"/>
@@ -2848,12 +2864,14 @@
         <v>8</v>
       </c>
       <c r="F25" s="58" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="G25" s="58" t="s">
-        <v>138</v>
-      </c>
-      <c r="H25" s="70"/>
+        <v>137</v>
+      </c>
+      <c r="H25" s="70" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="26" spans="1:8" s="69" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="68" t="s">
@@ -2877,8 +2895,8 @@
       <c r="G26" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="105" t="s">
-        <v>74</v>
+      <c r="H26" s="83" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="27" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2894,7 +2912,9 @@
       <c r="G27" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="70"/>
+      <c r="H27" s="57" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="28" spans="1:8" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B28" s="59"/>
@@ -2907,9 +2927,11 @@
         <v>108</v>
       </c>
       <c r="G28" s="58" t="s">
-        <v>140</v>
-      </c>
-      <c r="H28" s="70"/>
+        <v>139</v>
+      </c>
+      <c r="H28" s="57" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="29" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="59"/>
@@ -2919,12 +2941,14 @@
         <v>4</v>
       </c>
       <c r="F29" s="57" t="s">
+        <v>140</v>
+      </c>
+      <c r="G29" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="G29" s="57" t="s">
-        <v>142</v>
-      </c>
-      <c r="H29" s="70"/>
+      <c r="H29" s="57" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="30" spans="1:8" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B30" s="59"/>
@@ -2937,9 +2961,11 @@
         <v>109</v>
       </c>
       <c r="G30" s="58" t="s">
-        <v>183</v>
-      </c>
-      <c r="H30" s="58"/>
+        <v>182</v>
+      </c>
+      <c r="H30" s="57" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="31" spans="1:8" s="69" customFormat="1" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="76"/>
@@ -2949,12 +2975,14 @@
         <v>6</v>
       </c>
       <c r="F31" s="57" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="G31" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="58"/>
+      <c r="H31" s="57" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="32" spans="1:8" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B32" s="76"/>
@@ -2967,10 +2995,10 @@
         <v>110</v>
       </c>
       <c r="G32" s="58" t="s">
-        <v>185</v>
-      </c>
-      <c r="H32" s="58" t="s">
-        <v>36</v>
+        <v>190</v>
+      </c>
+      <c r="H32" s="57" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="33" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -2986,7 +3014,9 @@
       <c r="G33" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="58"/>
+      <c r="H33" s="57" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="34" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="76"/>
@@ -3001,8 +3031,8 @@
       <c r="G34" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="58" t="s">
-        <v>74</v>
+      <c r="H34" s="57" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="35" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3024,7 +3054,9 @@
       <c r="G35" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="105"/>
+      <c r="H35" s="55" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="36" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="59"/>
@@ -3040,7 +3072,7 @@
         <v>116</v>
       </c>
       <c r="H36" s="59" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="37" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3074,7 +3106,7 @@
         <v>118</v>
       </c>
       <c r="H38" s="59" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="39" spans="1:8" s="69" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3085,13 +3117,13 @@
         <v>5</v>
       </c>
       <c r="F39" s="59" t="s">
+        <v>142</v>
+      </c>
+      <c r="G39" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="G39" s="59" t="s">
-        <v>144</v>
-      </c>
       <c r="H39" s="59" t="s">
-        <v>74</v>
+        <v>35</v>
       </c>
     </row>
     <row r="40" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
@@ -3108,7 +3140,7 @@
         <v>121</v>
       </c>
       <c r="H40" s="76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="41" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
@@ -3124,7 +3156,9 @@
       <c r="G41" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="76"/>
+      <c r="H41" s="76" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="42" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="76"/>
@@ -3134,13 +3168,13 @@
         <v>8</v>
       </c>
       <c r="F42" s="59" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="G42" s="59" t="s">
-        <v>123</v>
+        <v>189</v>
       </c>
       <c r="H42" s="76" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="43" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
@@ -3163,7 +3197,9 @@
         <v>59</v>
       </c>
       <c r="G43" s="55"/>
-      <c r="H43" s="105"/>
+      <c r="H43" s="83" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="44" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="59"/>
@@ -3176,9 +3212,11 @@
         <v>60</v>
       </c>
       <c r="G44" s="59" t="s">
-        <v>125</v>
-      </c>
-      <c r="H44" s="59"/>
+        <v>124</v>
+      </c>
+      <c r="H44" s="59" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="45" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="59"/>
@@ -3188,12 +3226,14 @@
         <v>3</v>
       </c>
       <c r="F45" s="57" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="G45" s="57" t="s">
-        <v>132</v>
-      </c>
-      <c r="H45" s="70"/>
+        <v>131</v>
+      </c>
+      <c r="H45" s="70" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="46" spans="1:8" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B46" s="59"/>
@@ -3203,12 +3243,14 @@
         <v>4</v>
       </c>
       <c r="F46" s="58" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G46" s="58" t="s">
-        <v>132</v>
-      </c>
-      <c r="H46" s="70"/>
+        <v>131</v>
+      </c>
+      <c r="H46" s="70" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="47" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="59"/>
@@ -3218,12 +3260,14 @@
         <v>5</v>
       </c>
       <c r="F47" s="57" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="G47" s="57" t="s">
-        <v>133</v>
-      </c>
-      <c r="H47" s="70"/>
+        <v>132</v>
+      </c>
+      <c r="H47" s="70" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="48" spans="1:8" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B48" s="59"/>
@@ -3233,10 +3277,10 @@
         <v>6</v>
       </c>
       <c r="F48" s="58" t="s">
+        <v>128</v>
+      </c>
+      <c r="G48" s="58" t="s">
         <v>129</v>
-      </c>
-      <c r="G48" s="58" t="s">
-        <v>130</v>
       </c>
       <c r="H48" s="70"/>
     </row>
@@ -3248,10 +3292,10 @@
         <v>7</v>
       </c>
       <c r="F49" s="57" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G49" s="57" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="H49" s="70"/>
     </row>
@@ -3272,9 +3316,9 @@
         <v>66</v>
       </c>
       <c r="G50" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="H50" s="105"/>
+        <v>144</v>
+      </c>
+      <c r="H50" s="83"/>
     </row>
     <row r="51" spans="2:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="59"/>
@@ -3284,10 +3328,10 @@
         <v>2</v>
       </c>
       <c r="F51" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="G51" s="57" t="s">
         <v>146</v>
-      </c>
-      <c r="G51" s="57" t="s">
-        <v>147</v>
       </c>
       <c r="H51" s="70"/>
     </row>
@@ -3299,10 +3343,10 @@
         <v>3</v>
       </c>
       <c r="F52" s="57" t="s">
+        <v>147</v>
+      </c>
+      <c r="G52" s="58" t="s">
         <v>148</v>
-      </c>
-      <c r="G52" s="58" t="s">
-        <v>149</v>
       </c>
       <c r="H52" s="70"/>
     </row>
@@ -3314,10 +3358,10 @@
         <v>4</v>
       </c>
       <c r="F53" s="58" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G53" s="58" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="H53" s="70"/>
     </row>
@@ -3336,9 +3380,9 @@
         <v>67</v>
       </c>
       <c r="G54" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="H54" s="105"/>
+        <v>151</v>
+      </c>
+      <c r="H54" s="83"/>
     </row>
     <row r="55" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B55" s="59"/>
@@ -3348,10 +3392,10 @@
         <v>2</v>
       </c>
       <c r="F55" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G55" s="58" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="H55" s="70"/>
     </row>
@@ -3363,10 +3407,10 @@
         <v>3</v>
       </c>
       <c r="F56" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G56" s="57" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="H56" s="70"/>
     </row>
@@ -3378,10 +3422,10 @@
         <v>4</v>
       </c>
       <c r="F57" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G57" s="58" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="H57" s="70"/>
     </row>
@@ -3393,10 +3437,10 @@
         <v>5</v>
       </c>
       <c r="F58" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="G58" s="57" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="H58" s="70"/>
     </row>
@@ -3414,12 +3458,12 @@
         <v>1</v>
       </c>
       <c r="F59" s="55" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G59" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="H59" s="105"/>
+        <v>144</v>
+      </c>
+      <c r="H59" s="83"/>
     </row>
     <row r="60" spans="2:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="59"/>
@@ -3428,10 +3472,10 @@
         <v>2</v>
       </c>
       <c r="F60" s="58" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G60" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H60" s="70"/>
     </row>
@@ -3443,10 +3487,10 @@
         <v>3</v>
       </c>
       <c r="F61" s="57" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G61" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H61" s="70"/>
     </row>
@@ -3458,10 +3502,10 @@
         <v>4</v>
       </c>
       <c r="F62" s="58" t="s">
+        <v>163</v>
+      </c>
+      <c r="G62" s="58" t="s">
         <v>164</v>
-      </c>
-      <c r="G62" s="58" t="s">
-        <v>165</v>
       </c>
       <c r="H62" s="70"/>
     </row>
@@ -3480,9 +3524,9 @@
         <v>67</v>
       </c>
       <c r="G63" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="H63" s="105"/>
+        <v>151</v>
+      </c>
+      <c r="H63" s="83"/>
     </row>
     <row r="64" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="59"/>
@@ -3492,10 +3536,10 @@
         <v>2</v>
       </c>
       <c r="F64" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G64" s="58" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="H64" s="70"/>
     </row>
@@ -3507,10 +3551,10 @@
         <v>3</v>
       </c>
       <c r="F65" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G65" s="57" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="H65" s="70"/>
     </row>
@@ -3522,10 +3566,10 @@
         <v>4</v>
       </c>
       <c r="F66" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G66" s="58" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="H66" s="70"/>
     </row>
@@ -3537,14 +3581,14 @@
         <v>5</v>
       </c>
       <c r="F67" s="57" t="s">
+        <v>158</v>
+      </c>
+      <c r="G67" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="G67" s="57" t="s">
-        <v>160</v>
-      </c>
       <c r="H67" s="70"/>
     </row>
-    <row r="68" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="68" spans="2:8" s="69" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B68" s="68" t="s">
         <v>46</v>
       </c>
@@ -3558,12 +3602,12 @@
         <v>1</v>
       </c>
       <c r="F68" s="55" t="s">
-        <v>161</v>
+        <v>191</v>
       </c>
       <c r="G68" s="55" t="s">
-        <v>145</v>
-      </c>
-      <c r="H68" s="105"/>
+        <v>144</v>
+      </c>
+      <c r="H68" s="83"/>
     </row>
     <row r="69" spans="2:8" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="59"/>
@@ -3573,10 +3617,10 @@
         <v>2</v>
       </c>
       <c r="F69" s="58" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="G69" s="57" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H69" s="70"/>
     </row>
@@ -3588,10 +3632,10 @@
         <v>3</v>
       </c>
       <c r="F70" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="G70" s="58" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="H70" s="70"/>
     </row>
@@ -3603,10 +3647,10 @@
         <v>4</v>
       </c>
       <c r="F71" s="58" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="G71" s="58" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="H71" s="70"/>
     </row>
@@ -3625,9 +3669,9 @@
         <v>67</v>
       </c>
       <c r="G72" s="55" t="s">
-        <v>152</v>
-      </c>
-      <c r="H72" s="105"/>
+        <v>151</v>
+      </c>
+      <c r="H72" s="83"/>
     </row>
     <row r="73" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="59"/>
@@ -3637,10 +3681,10 @@
         <v>2</v>
       </c>
       <c r="F73" s="58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G73" s="58" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="H73" s="70"/>
     </row>
@@ -3652,12 +3696,14 @@
         <v>3</v>
       </c>
       <c r="F74" s="57" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G74" s="57" t="s">
-        <v>174</v>
-      </c>
-      <c r="H74" s="70"/>
+        <v>173</v>
+      </c>
+      <c r="H74" s="70" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="75" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B75" s="59"/>
@@ -3667,10 +3713,10 @@
         <v>4</v>
       </c>
       <c r="F75" s="58" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G75" s="57" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="H75" s="70"/>
     </row>
@@ -3682,10 +3728,10 @@
         <v>5</v>
       </c>
       <c r="F76" s="57" t="s">
+        <v>175</v>
+      </c>
+      <c r="G76" s="57" t="s">
         <v>176</v>
-      </c>
-      <c r="G76" s="57" t="s">
-        <v>177</v>
       </c>
       <c r="H76" s="70"/>
     </row>
@@ -3701,12 +3747,14 @@
         <v>1</v>
       </c>
       <c r="F77" s="55" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="G77" s="55" t="s">
-        <v>181</v>
-      </c>
-      <c r="H77" s="105"/>
+        <v>180</v>
+      </c>
+      <c r="H77" s="83" t="s">
+        <v>74</v>
+      </c>
     </row>
     <row r="78" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
@@ -3716,10 +3764,10 @@
         <v>2</v>
       </c>
       <c r="F78" s="57" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="G78" s="57" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H78" s="70"/>
     </row>
@@ -3731,10 +3779,10 @@
         <v>3</v>
       </c>
       <c r="F79" s="58" t="s">
+        <v>179</v>
+      </c>
+      <c r="G79" s="57" t="s">
         <v>180</v>
-      </c>
-      <c r="G79" s="57" t="s">
-        <v>181</v>
       </c>
       <c r="H79" s="70"/>
     </row>

--- a/01_doc/test_design/测试用例_eOrder.xlsx
+++ b/01_doc/test_design/测试用例_eOrder.xlsx
@@ -38,12 +38,12 @@
     <definedName name="Total" localSheetId="1">'[1]Server HW Details'!#REF!</definedName>
     <definedName name="Total">'[1]Server HW Details'!#REF!</definedName>
   </definedNames>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="207">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -721,6 +721,51 @@
     <t>角色管理界面检查
 1. UI
 2.界面的收缩功能</t>
+  </si>
+  <si>
+    <t>用户需求</t>
+  </si>
+  <si>
+    <t>UR_001-浏览菜单</t>
+  </si>
+  <si>
+    <t>UR_002-点菜</t>
+  </si>
+  <si>
+    <t>UR_003-浏览历史订单</t>
+  </si>
+  <si>
+    <t>UR_004-下订单</t>
+  </si>
+  <si>
+    <t>UR_005-消费清单</t>
+  </si>
+  <si>
+    <t>UR_006-更新订单</t>
+  </si>
+  <si>
+    <t>UR_007-创建菜品</t>
+  </si>
+  <si>
+    <t>UR_008-更新菜品</t>
+  </si>
+  <si>
+    <t>UR_009-注册和查看会员信息</t>
+  </si>
+  <si>
+    <t>UR_010-用户管理</t>
+  </si>
+  <si>
+    <t>UR_011-权限管理</t>
+  </si>
+  <si>
+    <t>UR_012-角色管理</t>
+  </si>
+  <si>
+    <t>UR_013-运营管理</t>
+  </si>
+  <si>
+    <t>对应UR</t>
   </si>
 </sst>
 </file>
@@ -730,7 +775,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="28" x14ac:knownFonts="1">
+  <fonts count="29" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -909,6 +954,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="楷体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="8">
     <fill>
@@ -1238,7 +1289,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="107">
+  <cellXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="1" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1503,6 +1554,10 @@
     <xf numFmtId="0" fontId="22" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="22" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1515,74 +1570,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1718,7 +1705,7 @@
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="C7EDCC"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="1F497D"/>
@@ -2409,38 +2396,39 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:I96"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane ySplit="2" topLeftCell="A42" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J73" sqref="J73"/>
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="D77" sqref="D77"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" outlineLevelRow="1" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="21.28515625" style="62" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" style="71" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="28.85546875" style="71" customWidth="1"/>
-    <col min="4" max="4" width="11.140625" style="71" customWidth="1"/>
-    <col min="5" max="5" width="11.85546875" style="72" customWidth="1"/>
-    <col min="6" max="6" width="54.42578125" style="73" customWidth="1"/>
-    <col min="7" max="7" width="62.7109375" style="74" customWidth="1"/>
-    <col min="8" max="8" width="16.140625" style="74" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="62"/>
+    <col min="3" max="4" width="28.85546875" style="71" customWidth="1"/>
+    <col min="5" max="5" width="11.140625" style="71" customWidth="1"/>
+    <col min="6" max="6" width="11.85546875" style="72" customWidth="1"/>
+    <col min="7" max="7" width="54.42578125" style="73" customWidth="1"/>
+    <col min="8" max="8" width="62.7109375" style="74" customWidth="1"/>
+    <col min="9" max="9" width="16.140625" style="74" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="62"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="18.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B1" s="104"/>
       <c r="C1" s="104"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="105" t="s">
+      <c r="D1" s="107"/>
+      <c r="E1" s="60"/>
+      <c r="F1" s="105" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="104"/>
-      <c r="G1" s="106"/>
-      <c r="H1" s="61"/>
-    </row>
-    <row r="2" spans="1:8" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="G1" s="104"/>
+      <c r="H1" s="106"/>
+      <c r="I1" s="61"/>
+    </row>
+    <row r="2" spans="1:9" ht="26.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A2" s="63" t="s">
         <v>43</v>
       </c>
@@ -2450,23 +2438,26 @@
       <c r="C2" s="64" t="s">
         <v>27</v>
       </c>
-      <c r="D2" s="65" t="s">
+      <c r="D2" s="63" t="s">
+        <v>206</v>
+      </c>
+      <c r="E2" s="65" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="66" t="s">
+      <c r="F2" s="66" t="s">
         <v>30</v>
       </c>
-      <c r="F2" s="64" t="s">
+      <c r="G2" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="G2" s="67" t="s">
+      <c r="H2" s="67" t="s">
         <v>32</v>
       </c>
-      <c r="H2" s="67" t="s">
+      <c r="I2" s="67" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="3" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A3" s="68" t="s">
         <v>63</v>
       </c>
@@ -2477,140 +2468,150 @@
         <v>37</v>
       </c>
       <c r="D3" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="E3" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E3" s="54">
+      <c r="F3" s="54">
         <v>1</v>
       </c>
-      <c r="F3" s="55" t="s">
+      <c r="G3" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="G3" s="55"/>
-      <c r="H3" s="83" t="s">
+      <c r="H3" s="55"/>
+      <c r="I3" s="83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="4" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" s="69" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A4" s="59"/>
       <c r="B4" s="59"/>
       <c r="C4" s="59"/>
       <c r="D4" s="59"/>
-      <c r="E4" s="56">
+      <c r="E4" s="59"/>
+      <c r="F4" s="56">
         <v>2</v>
       </c>
-      <c r="F4" s="57" t="s">
+      <c r="G4" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="G4" s="57" t="s">
+      <c r="H4" s="57" t="s">
         <v>83</v>
       </c>
-      <c r="H4" s="84" t="s">
+      <c r="I4" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:8" s="69" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:9" s="69" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B5" s="59"/>
       <c r="C5" s="59"/>
       <c r="D5" s="59"/>
-      <c r="E5" s="54">
+      <c r="E5" s="59"/>
+      <c r="F5" s="54">
         <v>3</v>
       </c>
-      <c r="F5" s="57" t="s">
+      <c r="G5" s="57" t="s">
         <v>84</v>
       </c>
-      <c r="G5" s="57" t="s">
+      <c r="H5" s="57" t="s">
         <v>75</v>
       </c>
-      <c r="H5" s="84" t="s">
+      <c r="I5" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" s="69" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B6" s="59"/>
       <c r="C6" s="59"/>
       <c r="D6" s="59"/>
-      <c r="E6" s="56">
+      <c r="E6" s="59"/>
+      <c r="F6" s="56">
         <v>4</v>
       </c>
-      <c r="F6" s="57" t="s">
+      <c r="G6" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="G6" s="57" t="s">
+      <c r="H6" s="57" t="s">
         <v>186</v>
       </c>
-      <c r="H6" s="84" t="s">
+      <c r="I6" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:8" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:9" s="69" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B7" s="59"/>
       <c r="C7" s="59"/>
       <c r="D7" s="59"/>
-      <c r="E7" s="54">
+      <c r="E7" s="59"/>
+      <c r="F7" s="54">
         <v>5</v>
       </c>
-      <c r="F7" s="57" t="s">
+      <c r="G7" s="57" t="s">
         <v>134</v>
       </c>
-      <c r="G7" s="57" t="s">
+      <c r="H7" s="57" t="s">
         <v>77</v>
       </c>
-      <c r="H7" s="84" t="s">
+      <c r="I7" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" s="69" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B8" s="59"/>
       <c r="C8" s="59"/>
       <c r="D8" s="59"/>
-      <c r="E8" s="56">
+      <c r="E8" s="59"/>
+      <c r="F8" s="56">
         <v>6</v>
       </c>
-      <c r="F8" s="57" t="s">
+      <c r="G8" s="57" t="s">
         <v>187</v>
       </c>
-      <c r="G8" s="57" t="s">
+      <c r="H8" s="57" t="s">
         <v>85</v>
       </c>
-      <c r="H8" s="84" t="s">
+      <c r="I8" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="9" spans="1:8" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:9" s="69" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B9" s="59"/>
       <c r="C9" s="59"/>
       <c r="D9" s="59"/>
-      <c r="E9" s="54">
+      <c r="E9" s="59"/>
+      <c r="F9" s="54">
         <v>7</v>
       </c>
-      <c r="F9" s="57" t="s">
+      <c r="G9" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="G9" s="57" t="s">
+      <c r="H9" s="57" t="s">
         <v>79</v>
       </c>
-      <c r="H9" s="84" t="s">
+      <c r="I9" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="10" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" s="69" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="59"/>
       <c r="C10" s="59"/>
       <c r="D10" s="59"/>
-      <c r="E10" s="56">
+      <c r="E10" s="59"/>
+      <c r="F10" s="56">
         <v>8</v>
       </c>
-      <c r="F10" s="57" t="s">
+      <c r="G10" s="57" t="s">
         <v>80</v>
       </c>
-      <c r="G10" s="57" t="s">
+      <c r="H10" s="57" t="s">
         <v>48</v>
       </c>
-      <c r="H10" s="84" t="s">
+      <c r="I10" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="11" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" s="69" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B11" s="68" t="s">
         <v>24</v>
       </c>
@@ -2618,122 +2619,131 @@
         <v>40</v>
       </c>
       <c r="D11" s="68" t="s">
+        <v>193</v>
+      </c>
+      <c r="E11" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E11" s="54">
+      <c r="F11" s="54">
         <v>1</v>
       </c>
-      <c r="F11" s="55" t="s">
+      <c r="G11" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="G11" s="82" t="s">
+      <c r="H11" s="82" t="s">
         <v>89</v>
       </c>
-      <c r="H11" s="83" t="s">
+      <c r="I11" s="83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="12" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="69" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B12" s="59"/>
       <c r="C12" s="59"/>
       <c r="D12" s="59"/>
-      <c r="E12" s="56">
+      <c r="E12" s="59"/>
+      <c r="F12" s="56">
         <v>2</v>
       </c>
-      <c r="F12" s="57" t="s">
+      <c r="G12" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="G12" s="58" t="s">
+      <c r="H12" s="58" t="s">
         <v>81</v>
       </c>
-      <c r="H12" s="84" t="s">
+      <c r="I12" s="84" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:8" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:9" s="69" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B13" s="59"/>
       <c r="C13" s="59"/>
       <c r="D13" s="59"/>
-      <c r="E13" s="54">
+      <c r="E13" s="59"/>
+      <c r="F13" s="54">
         <v>3</v>
       </c>
-      <c r="F13" s="58" t="s">
+      <c r="G13" s="58" t="s">
         <v>86</v>
       </c>
-      <c r="G13" s="58" t="s">
+      <c r="H13" s="58" t="s">
         <v>82</v>
       </c>
-      <c r="H13" s="84" t="s">
+      <c r="I13" s="84" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B14" s="59"/>
       <c r="C14" s="59"/>
       <c r="D14" s="59"/>
-      <c r="E14" s="56">
+      <c r="E14" s="59"/>
+      <c r="F14" s="56">
         <v>4</v>
       </c>
-      <c r="F14" s="58" t="s">
+      <c r="G14" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="G14" s="58" t="s">
+      <c r="H14" s="58" t="s">
         <v>181</v>
       </c>
-      <c r="H14" s="84"/>
-    </row>
-    <row r="15" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I14" s="84"/>
+    </row>
+    <row r="15" spans="1:9" s="69" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B15" s="59"/>
       <c r="C15" s="59"/>
       <c r="D15" s="59"/>
-      <c r="E15" s="54">
+      <c r="E15" s="59"/>
+      <c r="F15" s="54">
         <v>5</v>
       </c>
-      <c r="F15" s="58" t="s">
+      <c r="G15" s="58" t="s">
         <v>188</v>
       </c>
-      <c r="G15" s="58" t="s">
+      <c r="H15" s="58" t="s">
         <v>88</v>
       </c>
-      <c r="H15" s="84" t="s">
+      <c r="I15" s="84" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B16" s="59"/>
       <c r="C16" s="59"/>
       <c r="D16" s="59"/>
-      <c r="E16" s="56">
+      <c r="E16" s="59"/>
+      <c r="F16" s="56">
         <v>6</v>
       </c>
-      <c r="F16" s="58" t="s">
+      <c r="G16" s="58" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="57" t="s">
+      <c r="H16" s="57" t="s">
         <v>92</v>
       </c>
-      <c r="H16" s="70" t="s">
+      <c r="I16" s="70" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B17" s="59"/>
       <c r="C17" s="59"/>
       <c r="D17" s="59"/>
-      <c r="E17" s="54">
+      <c r="E17" s="59"/>
+      <c r="F17" s="54">
         <v>7</v>
       </c>
-      <c r="F17" s="58" t="s">
+      <c r="G17" s="58" t="s">
         <v>91</v>
       </c>
-      <c r="G17" s="57" t="s">
+      <c r="H17" s="57" t="s">
         <v>98</v>
       </c>
-      <c r="H17" s="70" t="s">
+      <c r="I17" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="18" spans="1:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B18" s="68" t="s">
         <v>42</v>
       </c>
@@ -2741,139 +2751,149 @@
         <v>41</v>
       </c>
       <c r="D18" s="68" t="s">
+        <v>195</v>
+      </c>
+      <c r="E18" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E18" s="54">
+      <c r="F18" s="54">
         <v>1</v>
       </c>
-      <c r="F18" s="55" t="s">
+      <c r="G18" s="55" t="s">
         <v>51</v>
       </c>
-      <c r="G18" s="55" t="s">
+      <c r="H18" s="55" t="s">
         <v>93</v>
       </c>
-      <c r="H18" s="83" t="s">
+      <c r="I18" s="83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B19" s="59"/>
       <c r="C19" s="59"/>
       <c r="D19" s="59"/>
-      <c r="E19" s="56">
+      <c r="E19" s="59"/>
+      <c r="F19" s="56">
         <v>2</v>
       </c>
-      <c r="F19" s="58" t="s">
+      <c r="G19" s="58" t="s">
         <v>94</v>
       </c>
-      <c r="G19" s="57" t="s">
+      <c r="H19" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="H19" s="70" t="s">
+      <c r="I19" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="20" spans="1:8" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:9" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B20" s="59"/>
       <c r="C20" s="59"/>
       <c r="D20" s="59"/>
-      <c r="E20" s="54">
+      <c r="E20" s="59"/>
+      <c r="F20" s="54">
         <v>3</v>
       </c>
-      <c r="F20" s="57" t="s">
+      <c r="G20" s="57" t="s">
         <v>95</v>
       </c>
-      <c r="G20" s="57" t="s">
+      <c r="H20" s="57" t="s">
         <v>101</v>
       </c>
-      <c r="H20" s="70"/>
-    </row>
-    <row r="21" spans="1:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I20" s="70"/>
+    </row>
+    <row r="21" spans="1:9" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B21" s="59"/>
       <c r="C21" s="59"/>
       <c r="D21" s="59"/>
-      <c r="E21" s="56">
+      <c r="E21" s="59"/>
+      <c r="F21" s="56">
         <v>4</v>
       </c>
-      <c r="F21" s="75" t="s">
+      <c r="G21" s="75" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="57" t="s">
+      <c r="H21" s="57" t="s">
         <v>135</v>
       </c>
-      <c r="H21" s="70" t="s">
+      <c r="I21" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="22" spans="1:8" ht="28.5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:9" ht="28.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B22" s="59"/>
       <c r="C22" s="59"/>
       <c r="D22" s="59"/>
-      <c r="E22" s="54">
+      <c r="E22" s="59"/>
+      <c r="F22" s="54">
         <v>5</v>
       </c>
-      <c r="F22" s="58" t="s">
+      <c r="G22" s="58" t="s">
         <v>96</v>
       </c>
-      <c r="G22" s="57" t="s">
+      <c r="H22" s="57" t="s">
         <v>136</v>
       </c>
-      <c r="H22" s="70" t="s">
+      <c r="I22" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B23" s="59"/>
       <c r="C23" s="59"/>
       <c r="D23" s="59"/>
-      <c r="E23" s="56">
+      <c r="E23" s="59"/>
+      <c r="F23" s="56">
         <v>6</v>
       </c>
-      <c r="F23" s="58" t="s">
+      <c r="G23" s="58" t="s">
         <v>103</v>
       </c>
-      <c r="G23" s="57" t="s">
+      <c r="H23" s="57" t="s">
         <v>104</v>
       </c>
-      <c r="H23" s="70" t="s">
+      <c r="I23" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="24" spans="1:8" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B24" s="59"/>
       <c r="C24" s="59"/>
       <c r="D24" s="59"/>
-      <c r="E24" s="54">
+      <c r="E24" s="59"/>
+      <c r="F24" s="54">
         <v>7</v>
       </c>
-      <c r="F24" s="57" t="s">
+      <c r="G24" s="57" t="s">
         <v>97</v>
       </c>
-      <c r="G24" s="57" t="s">
+      <c r="H24" s="57" t="s">
         <v>102</v>
       </c>
-      <c r="H24" s="70" t="s">
+      <c r="I24" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="25" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B25" s="59"/>
       <c r="C25" s="59"/>
       <c r="D25" s="59"/>
-      <c r="E25" s="56">
+      <c r="E25" s="59"/>
+      <c r="F25" s="56">
         <v>8</v>
       </c>
-      <c r="F25" s="58" t="s">
+      <c r="G25" s="58" t="s">
         <v>138</v>
       </c>
-      <c r="G25" s="58" t="s">
+      <c r="H25" s="58" t="s">
         <v>137</v>
       </c>
-      <c r="H25" s="70" t="s">
+      <c r="I25" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="69" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:9" s="69" customFormat="1" ht="43.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A26" s="68" t="s">
         <v>62</v>
       </c>
@@ -2884,158 +2904,169 @@
         <v>53</v>
       </c>
       <c r="D26" s="68" t="s">
+        <v>194</v>
+      </c>
+      <c r="E26" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E26" s="54">
+      <c r="F26" s="54">
         <v>1</v>
       </c>
-      <c r="F26" s="55" t="s">
+      <c r="G26" s="55" t="s">
         <v>105</v>
       </c>
-      <c r="G26" s="55" t="s">
+      <c r="H26" s="55" t="s">
         <v>107</v>
       </c>
-      <c r="H26" s="83" t="s">
+      <c r="I26" s="83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="27" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:9" s="69" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B27" s="59"/>
       <c r="C27" s="59"/>
       <c r="D27" s="59"/>
-      <c r="E27" s="56">
+      <c r="E27" s="59"/>
+      <c r="F27" s="56">
         <v>2</v>
       </c>
-      <c r="F27" s="57" t="s">
+      <c r="G27" s="57" t="s">
         <v>106</v>
       </c>
-      <c r="G27" s="57" t="s">
+      <c r="H27" s="57" t="s">
         <v>107</v>
       </c>
-      <c r="H27" s="57" t="s">
+      <c r="I27" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="28" spans="1:8" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:9" s="69" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B28" s="59"/>
       <c r="C28" s="59"/>
       <c r="D28" s="59"/>
-      <c r="E28" s="54">
+      <c r="E28" s="59"/>
+      <c r="F28" s="54">
         <v>3</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="G28" s="58" t="s">
         <v>108</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="H28" s="58" t="s">
         <v>139</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="I28" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B29" s="59"/>
       <c r="C29" s="59"/>
       <c r="D29" s="59"/>
-      <c r="E29" s="56">
+      <c r="E29" s="59"/>
+      <c r="F29" s="56">
         <v>4</v>
       </c>
-      <c r="F29" s="57" t="s">
+      <c r="G29" s="57" t="s">
         <v>140</v>
       </c>
-      <c r="G29" s="57" t="s">
+      <c r="H29" s="57" t="s">
         <v>141</v>
       </c>
-      <c r="H29" s="57" t="s">
+      <c r="I29" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:8" s="69" customFormat="1" ht="85.5" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:9" s="69" customFormat="1" ht="85.5" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B30" s="59"/>
       <c r="C30" s="59"/>
       <c r="D30" s="59"/>
-      <c r="E30" s="54">
+      <c r="E30" s="59"/>
+      <c r="F30" s="54">
         <v>5</v>
       </c>
-      <c r="F30" s="57" t="s">
+      <c r="G30" s="57" t="s">
         <v>109</v>
       </c>
-      <c r="G30" s="58" t="s">
+      <c r="H30" s="58" t="s">
         <v>182</v>
       </c>
-      <c r="H30" s="57" t="s">
+      <c r="I30" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="1:8" s="69" customFormat="1" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:9" s="69" customFormat="1" ht="86.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B31" s="76"/>
       <c r="C31" s="76"/>
       <c r="D31" s="76"/>
-      <c r="E31" s="56">
+      <c r="E31" s="76"/>
+      <c r="F31" s="56">
         <v>6</v>
       </c>
-      <c r="F31" s="57" t="s">
+      <c r="G31" s="57" t="s">
         <v>183</v>
       </c>
-      <c r="G31" s="58" t="s">
+      <c r="H31" s="58" t="s">
         <v>111</v>
       </c>
-      <c r="H31" s="57" t="s">
+      <c r="I31" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:8" s="69" customFormat="1" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:9" s="69" customFormat="1" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B32" s="76"/>
       <c r="C32" s="76"/>
       <c r="D32" s="76"/>
-      <c r="E32" s="54">
+      <c r="E32" s="76"/>
+      <c r="F32" s="54">
         <v>7</v>
       </c>
-      <c r="F32" s="57" t="s">
+      <c r="G32" s="57" t="s">
         <v>110</v>
       </c>
-      <c r="G32" s="58" t="s">
+      <c r="H32" s="58" t="s">
         <v>190</v>
       </c>
-      <c r="H32" s="57" t="s">
+      <c r="I32" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B33" s="76"/>
       <c r="C33" s="76"/>
       <c r="D33" s="76"/>
-      <c r="E33" s="56">
+      <c r="E33" s="76"/>
+      <c r="F33" s="56">
         <v>8</v>
       </c>
-      <c r="F33" s="57" t="s">
+      <c r="G33" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="G33" s="58" t="s">
+      <c r="H33" s="58" t="s">
         <v>112</v>
       </c>
-      <c r="H33" s="57" t="s">
+      <c r="I33" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="34" spans="1:8" s="69" customFormat="1" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:9" s="69" customFormat="1" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B34" s="76"/>
       <c r="C34" s="76"/>
       <c r="D34" s="76"/>
-      <c r="E34" s="54">
+      <c r="E34" s="76"/>
+      <c r="F34" s="54">
         <v>9</v>
       </c>
-      <c r="F34" s="58" t="s">
+      <c r="G34" s="58" t="s">
         <v>113</v>
       </c>
-      <c r="G34" s="58" t="s">
+      <c r="H34" s="58" t="s">
         <v>100</v>
       </c>
-      <c r="H34" s="57" t="s">
+      <c r="I34" s="57" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="35" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:9" s="69" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B35" s="68" t="s">
         <v>54</v>
       </c>
@@ -3043,141 +3074,151 @@
         <v>55</v>
       </c>
       <c r="D35" s="68" t="s">
+        <v>196</v>
+      </c>
+      <c r="E35" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E35" s="54">
+      <c r="F35" s="54">
         <v>1</v>
       </c>
-      <c r="F35" s="55" t="s">
+      <c r="G35" s="55" t="s">
         <v>114</v>
       </c>
-      <c r="G35" s="55" t="s">
+      <c r="H35" s="55" t="s">
         <v>115</v>
       </c>
-      <c r="H35" s="55" t="s">
+      <c r="I35" s="55" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="36" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B36" s="59"/>
       <c r="C36" s="59"/>
       <c r="D36" s="59"/>
-      <c r="E36" s="56">
+      <c r="E36" s="59"/>
+      <c r="F36" s="56">
         <v>2</v>
       </c>
-      <c r="F36" s="59" t="s">
+      <c r="G36" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="G36" s="59" t="s">
+      <c r="H36" s="59" t="s">
         <v>116</v>
       </c>
-      <c r="H36" s="59" t="s">
+      <c r="I36" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="37" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:9" s="69" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B37" s="59"/>
       <c r="C37" s="59"/>
       <c r="D37" s="59"/>
-      <c r="E37" s="54">
+      <c r="E37" s="59"/>
+      <c r="F37" s="54">
         <v>3</v>
       </c>
-      <c r="F37" s="59" t="s">
+      <c r="G37" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="G37" s="59" t="s">
+      <c r="H37" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="H37" s="59" t="s">
+      <c r="I37" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="38" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B38" s="59"/>
       <c r="C38" s="59"/>
       <c r="D38" s="59"/>
-      <c r="E38" s="56">
+      <c r="E38" s="59"/>
+      <c r="F38" s="56">
         <v>4</v>
       </c>
-      <c r="F38" s="59" t="s">
+      <c r="G38" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="G38" s="59" t="s">
+      <c r="H38" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="H38" s="59" t="s">
+      <c r="I38" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="39" spans="1:8" s="69" customFormat="1" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:9" s="69" customFormat="1" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B39" s="59"/>
       <c r="C39" s="59"/>
       <c r="D39" s="59"/>
-      <c r="E39" s="54">
+      <c r="E39" s="59"/>
+      <c r="F39" s="54">
         <v>5</v>
       </c>
-      <c r="F39" s="59" t="s">
+      <c r="G39" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="G39" s="59" t="s">
+      <c r="H39" s="59" t="s">
         <v>143</v>
       </c>
-      <c r="H39" s="59" t="s">
+      <c r="I39" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="40" spans="1:8" s="69" customFormat="1" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:9" s="69" customFormat="1" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B40" s="76"/>
       <c r="C40" s="76"/>
       <c r="D40" s="76"/>
-      <c r="E40" s="56">
+      <c r="E40" s="76"/>
+      <c r="F40" s="56">
         <v>6</v>
       </c>
-      <c r="F40" s="59" t="s">
+      <c r="G40" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="G40" s="59" t="s">
+      <c r="H40" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="H40" s="76" t="s">
+      <c r="I40" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="41" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B41" s="76"/>
       <c r="C41" s="76"/>
       <c r="D41" s="76"/>
-      <c r="E41" s="81">
+      <c r="E41" s="76"/>
+      <c r="F41" s="81">
         <v>7</v>
       </c>
-      <c r="F41" s="59" t="s">
+      <c r="G41" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="G41" s="59" t="s">
+      <c r="H41" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="76" t="s">
+      <c r="I41" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="42" spans="1:8" s="69" customFormat="1" ht="43.5" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:9" s="69" customFormat="1" ht="43.5" hidden="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B42" s="76"/>
       <c r="C42" s="76"/>
       <c r="D42" s="76"/>
-      <c r="E42" s="54">
+      <c r="E42" s="76"/>
+      <c r="F42" s="54">
         <v>8</v>
       </c>
-      <c r="F42" s="59" t="s">
+      <c r="G42" s="59" t="s">
         <v>123</v>
       </c>
-      <c r="G42" s="59" t="s">
+      <c r="H42" s="59" t="s">
         <v>189</v>
       </c>
-      <c r="H42" s="76" t="s">
+      <c r="I42" s="76" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="43" spans="1:8" s="69" customFormat="1" ht="29.25" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:9" s="69" customFormat="1" ht="29.25" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A43" s="68" t="s">
         <v>14</v>
       </c>
@@ -3188,118 +3229,127 @@
         <v>61</v>
       </c>
       <c r="D43" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E43" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E43" s="54">
+      <c r="F43" s="54">
         <v>1</v>
       </c>
-      <c r="F43" s="55" t="s">
+      <c r="G43" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="G43" s="55"/>
-      <c r="H43" s="83" t="s">
+      <c r="H43" s="55"/>
+      <c r="I43" s="83" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:8" s="69" customFormat="1" ht="15" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:9" s="69" customFormat="1" ht="15" hidden="1" outlineLevel="1" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B44" s="59"/>
       <c r="C44" s="59"/>
       <c r="D44" s="59"/>
-      <c r="E44" s="56">
+      <c r="E44" s="59"/>
+      <c r="F44" s="56">
         <v>2</v>
       </c>
-      <c r="F44" s="59" t="s">
+      <c r="G44" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="G44" s="59" t="s">
+      <c r="H44" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="H44" s="59" t="s">
+      <c r="I44" s="59" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="45" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B45" s="59"/>
       <c r="C45" s="59"/>
       <c r="D45" s="59"/>
-      <c r="E45" s="54">
+      <c r="E45" s="59"/>
+      <c r="F45" s="54">
         <v>3</v>
       </c>
-      <c r="F45" s="57" t="s">
+      <c r="G45" s="57" t="s">
         <v>125</v>
       </c>
-      <c r="G45" s="57" t="s">
+      <c r="H45" s="57" t="s">
         <v>131</v>
       </c>
-      <c r="H45" s="70" t="s">
+      <c r="I45" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="46" spans="1:8" ht="42.75" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:9" ht="42.75" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B46" s="59"/>
       <c r="C46" s="59"/>
       <c r="D46" s="59"/>
-      <c r="E46" s="54">
+      <c r="E46" s="59"/>
+      <c r="F46" s="54">
         <v>4</v>
       </c>
-      <c r="F46" s="58" t="s">
+      <c r="G46" s="58" t="s">
         <v>126</v>
       </c>
-      <c r="G46" s="58" t="s">
+      <c r="H46" s="58" t="s">
         <v>131</v>
       </c>
-      <c r="H46" s="70" t="s">
+      <c r="I46" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="47" spans="1:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B47" s="59"/>
       <c r="C47" s="59"/>
       <c r="D47" s="59"/>
-      <c r="E47" s="56">
+      <c r="E47" s="59"/>
+      <c r="F47" s="56">
         <v>5</v>
       </c>
-      <c r="F47" s="57" t="s">
+      <c r="G47" s="57" t="s">
         <v>127</v>
       </c>
-      <c r="G47" s="57" t="s">
+      <c r="H47" s="57" t="s">
         <v>132</v>
       </c>
-      <c r="H47" s="70" t="s">
+      <c r="I47" s="70" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="48" spans="1:8" ht="71.25" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:9" ht="71.25" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B48" s="59"/>
       <c r="C48" s="59"/>
       <c r="D48" s="59"/>
-      <c r="E48" s="54">
+      <c r="E48" s="59"/>
+      <c r="F48" s="54">
         <v>6</v>
       </c>
-      <c r="F48" s="58" t="s">
+      <c r="G48" s="58" t="s">
         <v>128</v>
       </c>
-      <c r="G48" s="58" t="s">
+      <c r="H48" s="58" t="s">
         <v>129</v>
       </c>
-      <c r="H48" s="70"/>
-    </row>
-    <row r="49" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I48" s="70"/>
+    </row>
+    <row r="49" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B49" s="59"/>
       <c r="C49" s="59"/>
       <c r="D49" s="59"/>
-      <c r="E49" s="56">
+      <c r="E49" s="59"/>
+      <c r="F49" s="56">
         <v>7</v>
       </c>
-      <c r="F49" s="57" t="s">
+      <c r="G49" s="57" t="s">
         <v>130</v>
       </c>
-      <c r="G49" s="57" t="s">
+      <c r="H49" s="57" t="s">
         <v>133</v>
       </c>
-      <c r="H49" s="70"/>
-    </row>
-    <row r="50" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I49" s="70"/>
+    </row>
+    <row r="50" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B50" s="68" t="s">
         <v>14</v>
       </c>
@@ -3307,144 +3357,157 @@
         <v>64</v>
       </c>
       <c r="D50" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E50" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E50" s="54">
+      <c r="F50" s="54">
         <v>1</v>
       </c>
-      <c r="F50" s="55" t="s">
+      <c r="G50" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="G50" s="55" t="s">
+      <c r="H50" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="H50" s="83"/>
-    </row>
-    <row r="51" spans="2:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I50" s="83"/>
+    </row>
+    <row r="51" spans="2:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B51" s="59"/>
       <c r="C51" s="59"/>
       <c r="D51" s="59"/>
-      <c r="E51" s="56">
+      <c r="E51" s="59"/>
+      <c r="F51" s="56">
         <v>2</v>
       </c>
-      <c r="F51" s="58" t="s">
+      <c r="G51" s="58" t="s">
         <v>145</v>
       </c>
-      <c r="G51" s="57" t="s">
+      <c r="H51" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="H51" s="70"/>
-    </row>
-    <row r="52" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I51" s="70"/>
+    </row>
+    <row r="52" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B52" s="59"/>
       <c r="C52" s="59"/>
       <c r="D52" s="59"/>
-      <c r="E52" s="54">
+      <c r="E52" s="59"/>
+      <c r="F52" s="54">
         <v>3</v>
       </c>
-      <c r="F52" s="57" t="s">
+      <c r="G52" s="57" t="s">
         <v>147</v>
       </c>
-      <c r="G52" s="58" t="s">
+      <c r="H52" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H52" s="70"/>
-    </row>
-    <row r="53" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I52" s="70"/>
+    </row>
+    <row r="53" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B53" s="59"/>
       <c r="C53" s="59"/>
       <c r="D53" s="59"/>
-      <c r="E53" s="54">
+      <c r="E53" s="59"/>
+      <c r="F53" s="54">
         <v>4</v>
       </c>
-      <c r="F53" s="58" t="s">
+      <c r="G53" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="G53" s="58" t="s">
+      <c r="H53" s="58" t="s">
         <v>149</v>
       </c>
-      <c r="H53" s="70"/>
-    </row>
-    <row r="54" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I53" s="70"/>
+    </row>
+    <row r="54" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B54" s="68"/>
       <c r="C54" s="68" t="s">
         <v>65</v>
       </c>
       <c r="D54" s="68" t="s">
+        <v>203</v>
+      </c>
+      <c r="E54" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E54" s="54">
+      <c r="F54" s="54">
         <v>1</v>
       </c>
-      <c r="F54" s="55" t="s">
+      <c r="G54" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G54" s="55" t="s">
+      <c r="H54" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="H54" s="83"/>
-    </row>
-    <row r="55" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I54" s="83"/>
+    </row>
+    <row r="55" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B55" s="59"/>
       <c r="C55" s="59"/>
       <c r="D55" s="59"/>
-      <c r="E55" s="54">
+      <c r="E55" s="59"/>
+      <c r="F55" s="54">
         <v>2</v>
       </c>
-      <c r="F55" s="58" t="s">
+      <c r="G55" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="G55" s="58" t="s">
+      <c r="H55" s="58" t="s">
         <v>155</v>
       </c>
-      <c r="H55" s="70"/>
-    </row>
-    <row r="56" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I55" s="70"/>
+    </row>
+    <row r="56" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B56" s="59"/>
       <c r="C56" s="59"/>
       <c r="D56" s="59"/>
-      <c r="E56" s="56">
+      <c r="E56" s="59"/>
+      <c r="F56" s="56">
         <v>3</v>
       </c>
-      <c r="F56" s="57" t="s">
+      <c r="G56" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="G56" s="57" t="s">
+      <c r="H56" s="57" t="s">
         <v>156</v>
       </c>
-      <c r="H56" s="70"/>
-    </row>
-    <row r="57" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I56" s="70"/>
+    </row>
+    <row r="57" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B57" s="59"/>
       <c r="C57" s="59"/>
       <c r="D57" s="59"/>
-      <c r="E57" s="54">
+      <c r="E57" s="59"/>
+      <c r="F57" s="54">
         <v>4</v>
       </c>
-      <c r="F57" s="58" t="s">
+      <c r="G57" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="G57" s="58" t="s">
+      <c r="H57" s="58" t="s">
         <v>167</v>
       </c>
-      <c r="H57" s="70"/>
-    </row>
-    <row r="58" spans="2:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I57" s="70"/>
+    </row>
+    <row r="58" spans="2:9" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B58" s="59"/>
       <c r="C58" s="59"/>
       <c r="D58" s="59"/>
-      <c r="E58" s="56">
+      <c r="E58" s="59"/>
+      <c r="F58" s="56">
         <v>5</v>
       </c>
-      <c r="F58" s="57" t="s">
+      <c r="G58" s="57" t="s">
         <v>169</v>
       </c>
-      <c r="G58" s="57" t="s">
+      <c r="H58" s="57" t="s">
         <v>168</v>
       </c>
-      <c r="H58" s="70"/>
-    </row>
-    <row r="59" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I58" s="70"/>
+    </row>
+    <row r="59" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B59" s="68" t="s">
         <v>47</v>
       </c>
@@ -3452,143 +3515,155 @@
         <v>68</v>
       </c>
       <c r="D59" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E59" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E59" s="54">
+      <c r="F59" s="54">
         <v>1</v>
       </c>
-      <c r="F59" s="55" t="s">
+      <c r="G59" s="55" t="s">
         <v>160</v>
       </c>
-      <c r="G59" s="55" t="s">
+      <c r="H59" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="H59" s="83"/>
-    </row>
-    <row r="60" spans="2:8" ht="43.5" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I59" s="83"/>
+    </row>
+    <row r="60" spans="2:9" ht="43.5" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B60" s="59"/>
-      <c r="D60" s="59"/>
-      <c r="E60" s="56">
+      <c r="E60" s="59"/>
+      <c r="F60" s="56">
         <v>2</v>
       </c>
-      <c r="F60" s="58" t="s">
+      <c r="G60" s="58" t="s">
         <v>161</v>
       </c>
-      <c r="G60" s="57" t="s">
+      <c r="H60" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="H60" s="70"/>
-    </row>
-    <row r="61" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I60" s="70"/>
+    </row>
+    <row r="61" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B61" s="59"/>
       <c r="C61" s="59"/>
       <c r="D61" s="59"/>
-      <c r="E61" s="54">
+      <c r="E61" s="59"/>
+      <c r="F61" s="54">
         <v>3</v>
       </c>
-      <c r="F61" s="57" t="s">
+      <c r="G61" s="57" t="s">
         <v>162</v>
       </c>
-      <c r="G61" s="58" t="s">
+      <c r="H61" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H61" s="70"/>
-    </row>
-    <row r="62" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I61" s="70"/>
+    </row>
+    <row r="62" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B62" s="59"/>
       <c r="C62" s="59"/>
       <c r="D62" s="59"/>
-      <c r="E62" s="56">
+      <c r="E62" s="59"/>
+      <c r="F62" s="56">
         <v>4</v>
       </c>
-      <c r="F62" s="58" t="s">
+      <c r="G62" s="58" t="s">
         <v>163</v>
       </c>
-      <c r="G62" s="58" t="s">
+      <c r="H62" s="58" t="s">
         <v>164</v>
       </c>
-      <c r="H62" s="70"/>
-    </row>
-    <row r="63" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I62" s="70"/>
+    </row>
+    <row r="63" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B63" s="68"/>
       <c r="C63" s="68" t="s">
         <v>69</v>
       </c>
       <c r="D63" s="68" t="s">
+        <v>204</v>
+      </c>
+      <c r="E63" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E63" s="54">
+      <c r="F63" s="54">
         <v>1</v>
       </c>
-      <c r="F63" s="55" t="s">
+      <c r="G63" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G63" s="55" t="s">
+      <c r="H63" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="H63" s="83"/>
-    </row>
-    <row r="64" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I63" s="83"/>
+    </row>
+    <row r="64" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B64" s="59"/>
       <c r="C64" s="59"/>
       <c r="D64" s="59"/>
-      <c r="E64" s="56">
+      <c r="E64" s="59"/>
+      <c r="F64" s="56">
         <v>2</v>
       </c>
-      <c r="F64" s="58" t="s">
+      <c r="G64" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="G64" s="58" t="s">
+      <c r="H64" s="58" t="s">
         <v>165</v>
       </c>
-      <c r="H64" s="70"/>
-    </row>
-    <row r="65" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I64" s="70"/>
+    </row>
+    <row r="65" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B65" s="59"/>
       <c r="C65" s="59"/>
       <c r="D65" s="59"/>
-      <c r="E65" s="54">
+      <c r="E65" s="59"/>
+      <c r="F65" s="54">
         <v>3</v>
       </c>
-      <c r="F65" s="57" t="s">
+      <c r="G65" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="G65" s="57" t="s">
+      <c r="H65" s="57" t="s">
         <v>166</v>
       </c>
-      <c r="H65" s="70"/>
-    </row>
-    <row r="66" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I65" s="70"/>
+    </row>
+    <row r="66" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B66" s="59"/>
       <c r="C66" s="59"/>
       <c r="D66" s="59"/>
-      <c r="E66" s="56">
+      <c r="E66" s="59"/>
+      <c r="F66" s="56">
         <v>4</v>
       </c>
-      <c r="F66" s="58" t="s">
+      <c r="G66" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="G66" s="58" t="s">
+      <c r="H66" s="58" t="s">
         <v>157</v>
       </c>
-      <c r="H66" s="70"/>
-    </row>
-    <row r="67" spans="2:8" ht="29.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I66" s="70"/>
+    </row>
+    <row r="67" spans="2:9" ht="29.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B67" s="76"/>
       <c r="C67" s="59"/>
       <c r="D67" s="59"/>
-      <c r="E67" s="81">
+      <c r="E67" s="59"/>
+      <c r="F67" s="81">
         <v>5</v>
       </c>
-      <c r="F67" s="57" t="s">
+      <c r="G67" s="57" t="s">
         <v>158</v>
       </c>
-      <c r="G67" s="57" t="s">
+      <c r="H67" s="57" t="s">
         <v>159</v>
       </c>
-      <c r="H67" s="70"/>
-    </row>
-    <row r="68" spans="2:8" s="69" customFormat="1" ht="43.5" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I67" s="70"/>
+    </row>
+    <row r="68" spans="2:9" s="69" customFormat="1" ht="43.5" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B68" s="68" t="s">
         <v>46</v>
       </c>
@@ -3596,371 +3671,412 @@
         <v>70</v>
       </c>
       <c r="D68" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E68" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E68" s="54">
+      <c r="F68" s="54">
         <v>1</v>
       </c>
-      <c r="F68" s="55" t="s">
+      <c r="G68" s="55" t="s">
         <v>191</v>
       </c>
-      <c r="G68" s="55" t="s">
+      <c r="H68" s="55" t="s">
         <v>144</v>
       </c>
-      <c r="H68" s="83"/>
-    </row>
-    <row r="69" spans="2:8" ht="86.25" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I68" s="83"/>
+    </row>
+    <row r="69" spans="2:9" ht="86.25" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B69" s="59"/>
       <c r="C69" s="59"/>
       <c r="D69" s="59"/>
-      <c r="E69" s="56">
+      <c r="E69" s="59"/>
+      <c r="F69" s="56">
         <v>2</v>
       </c>
-      <c r="F69" s="58" t="s">
+      <c r="G69" s="58" t="s">
         <v>170</v>
       </c>
-      <c r="G69" s="57" t="s">
+      <c r="H69" s="57" t="s">
         <v>146</v>
       </c>
-      <c r="H69" s="70"/>
-    </row>
-    <row r="70" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I69" s="70"/>
+    </row>
+    <row r="70" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B70" s="59"/>
       <c r="C70" s="59"/>
       <c r="D70" s="59"/>
-      <c r="E70" s="54">
+      <c r="E70" s="59"/>
+      <c r="F70" s="54">
         <v>3</v>
       </c>
-      <c r="F70" s="57" t="s">
+      <c r="G70" s="57" t="s">
         <v>171</v>
       </c>
-      <c r="G70" s="58" t="s">
+      <c r="H70" s="58" t="s">
         <v>148</v>
       </c>
-      <c r="H70" s="70"/>
-    </row>
-    <row r="71" spans="2:8" ht="72" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I70" s="70"/>
+    </row>
+    <row r="71" spans="2:9" ht="72" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B71" s="59"/>
       <c r="C71" s="59"/>
       <c r="D71" s="59"/>
-      <c r="E71" s="56">
+      <c r="E71" s="59"/>
+      <c r="F71" s="56">
         <v>4</v>
       </c>
-      <c r="F71" s="58" t="s">
+      <c r="G71" s="58" t="s">
         <v>184</v>
       </c>
-      <c r="G71" s="58" t="s">
+      <c r="H71" s="58" t="s">
         <v>185</v>
       </c>
-      <c r="H71" s="70"/>
-    </row>
-    <row r="72" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I71" s="70"/>
+    </row>
+    <row r="72" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B72" s="68"/>
       <c r="C72" s="68" t="s">
         <v>71</v>
       </c>
       <c r="D72" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E72" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E72" s="54">
+      <c r="F72" s="54">
         <v>1</v>
       </c>
-      <c r="F72" s="55" t="s">
+      <c r="G72" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="G72" s="55" t="s">
+      <c r="H72" s="55" t="s">
         <v>151</v>
       </c>
-      <c r="H72" s="83"/>
-    </row>
-    <row r="73" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I72" s="83"/>
+    </row>
+    <row r="73" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
       <c r="D73" s="59"/>
-      <c r="E73" s="56">
+      <c r="E73" s="59"/>
+      <c r="F73" s="56">
         <v>2</v>
       </c>
-      <c r="F73" s="58" t="s">
+      <c r="G73" s="58" t="s">
         <v>152</v>
       </c>
-      <c r="G73" s="58" t="s">
+      <c r="H73" s="58" t="s">
         <v>172</v>
       </c>
-      <c r="H73" s="70"/>
-    </row>
-    <row r="74" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I73" s="70"/>
+    </row>
+    <row r="74" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
       <c r="D74" s="59"/>
-      <c r="E74" s="54">
+      <c r="E74" s="59"/>
+      <c r="F74" s="54">
         <v>3</v>
       </c>
-      <c r="F74" s="57" t="s">
+      <c r="G74" s="57" t="s">
         <v>153</v>
       </c>
-      <c r="G74" s="57" t="s">
+      <c r="H74" s="57" t="s">
         <v>173</v>
       </c>
-      <c r="H74" s="70" t="s">
+      <c r="I74" s="70" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="75" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B75" s="59"/>
       <c r="C75" s="59"/>
       <c r="D75" s="59"/>
-      <c r="E75" s="56">
+      <c r="E75" s="59"/>
+      <c r="F75" s="56">
         <v>4</v>
       </c>
-      <c r="F75" s="58" t="s">
+      <c r="G75" s="58" t="s">
         <v>154</v>
       </c>
-      <c r="G75" s="57" t="s">
+      <c r="H75" s="57" t="s">
         <v>174</v>
       </c>
-      <c r="H75" s="70"/>
-    </row>
-    <row r="76" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I75" s="70"/>
+    </row>
+    <row r="76" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B76" s="76"/>
       <c r="C76" s="76"/>
       <c r="D76" s="76"/>
-      <c r="E76" s="81">
+      <c r="E76" s="76"/>
+      <c r="F76" s="81">
         <v>5</v>
       </c>
-      <c r="F76" s="57" t="s">
+      <c r="G76" s="57" t="s">
         <v>175</v>
       </c>
-      <c r="G76" s="57" t="s">
+      <c r="H76" s="57" t="s">
         <v>176</v>
       </c>
-      <c r="H76" s="70"/>
-    </row>
-    <row r="77" spans="2:8" s="69" customFormat="1" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I76" s="70"/>
+    </row>
+    <row r="77" spans="2:9" s="69" customFormat="1" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B77" s="68"/>
       <c r="C77" s="68" t="s">
         <v>72</v>
       </c>
       <c r="D77" s="68" t="s">
+        <v>202</v>
+      </c>
+      <c r="E77" s="68" t="s">
         <v>34</v>
       </c>
-      <c r="E77" s="54">
+      <c r="F77" s="54">
         <v>1</v>
       </c>
-      <c r="F77" s="55" t="s">
+      <c r="G77" s="55" t="s">
         <v>177</v>
       </c>
-      <c r="G77" s="55" t="s">
+      <c r="H77" s="55" t="s">
         <v>180</v>
       </c>
-      <c r="H77" s="83" t="s">
+      <c r="I77" s="83" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="78" spans="2:8" ht="15" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
+    <row r="78" spans="2:9" ht="15" hidden="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B78" s="59"/>
       <c r="C78" s="59"/>
       <c r="D78" s="59"/>
-      <c r="E78" s="56">
+      <c r="E78" s="59"/>
+      <c r="F78" s="56">
         <v>2</v>
       </c>
-      <c r="F78" s="57" t="s">
+      <c r="G78" s="57" t="s">
         <v>178</v>
       </c>
-      <c r="G78" s="57" t="s">
+      <c r="H78" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="H78" s="70"/>
-    </row>
-    <row r="79" spans="2:8" outlineLevel="1" x14ac:dyDescent="0.15">
+      <c r="I78" s="70"/>
+    </row>
+    <row r="79" spans="2:9" hidden="1" outlineLevel="1" x14ac:dyDescent="0.15">
       <c r="B79" s="59"/>
       <c r="C79" s="59"/>
       <c r="D79" s="59"/>
-      <c r="E79" s="54">
+      <c r="E79" s="59"/>
+      <c r="F79" s="54">
         <v>3</v>
       </c>
-      <c r="F79" s="58" t="s">
+      <c r="G79" s="58" t="s">
         <v>179</v>
       </c>
-      <c r="G79" s="57" t="s">
+      <c r="H79" s="57" t="s">
         <v>180</v>
       </c>
-      <c r="H79" s="70"/>
-    </row>
-    <row r="80" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="I79" s="70"/>
+    </row>
+    <row r="80" spans="2:9" ht="15" collapsed="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B80" s="59"/>
       <c r="C80" s="59"/>
       <c r="D80" s="59"/>
-      <c r="E80" s="56"/>
-      <c r="F80" s="57"/>
+      <c r="E80" s="59"/>
+      <c r="F80" s="56"/>
       <c r="G80" s="57"/>
-      <c r="H80" s="70"/>
-    </row>
-    <row r="81" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H80" s="57"/>
+      <c r="I80" s="70"/>
+    </row>
+    <row r="81" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B81" s="59"/>
       <c r="C81" s="59"/>
       <c r="D81" s="59"/>
-      <c r="E81" s="54"/>
-      <c r="F81" s="58"/>
+      <c r="E81" s="59"/>
+      <c r="F81" s="54"/>
       <c r="G81" s="58"/>
-      <c r="H81" s="70"/>
-    </row>
-    <row r="82" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H81" s="58"/>
+      <c r="I81" s="70"/>
+    </row>
+    <row r="82" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B82" s="59"/>
       <c r="C82" s="59"/>
       <c r="D82" s="59"/>
-      <c r="E82" s="56"/>
-      <c r="F82" s="57"/>
+      <c r="E82" s="59"/>
+      <c r="F82" s="56"/>
       <c r="G82" s="57"/>
-      <c r="H82" s="70"/>
-    </row>
-    <row r="83" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H82" s="57"/>
+      <c r="I82" s="70"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B83" s="59"/>
       <c r="C83" s="59"/>
       <c r="D83" s="59"/>
-      <c r="E83" s="54"/>
-      <c r="F83" s="58"/>
+      <c r="E83" s="59"/>
+      <c r="F83" s="54"/>
       <c r="G83" s="58"/>
-      <c r="H83" s="70"/>
-    </row>
-    <row r="84" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H83" s="58"/>
+      <c r="I83" s="70"/>
+    </row>
+    <row r="84" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B84" s="59"/>
       <c r="C84" s="59"/>
       <c r="D84" s="59"/>
-      <c r="E84" s="56"/>
-      <c r="F84" s="57"/>
+      <c r="E84" s="59"/>
+      <c r="F84" s="56"/>
       <c r="G84" s="57"/>
-      <c r="H84" s="70"/>
-    </row>
-    <row r="85" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H84" s="57"/>
+      <c r="I84" s="70"/>
+    </row>
+    <row r="85" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B85" s="59"/>
       <c r="C85" s="59"/>
       <c r="D85" s="59"/>
-      <c r="E85" s="54"/>
-      <c r="F85" s="58"/>
+      <c r="E85" s="59"/>
+      <c r="F85" s="54"/>
       <c r="G85" s="58"/>
-      <c r="H85" s="70"/>
-    </row>
-    <row r="86" spans="2:8" ht="15" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="H85" s="58"/>
+      <c r="I85" s="70"/>
+    </row>
+    <row r="86" spans="2:9" ht="15" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B86" s="59"/>
       <c r="C86" s="59"/>
       <c r="D86" s="59"/>
-      <c r="E86" s="56"/>
-      <c r="F86" s="57"/>
+      <c r="E86" s="59"/>
+      <c r="F86" s="56"/>
       <c r="G86" s="57"/>
-      <c r="H86" s="70"/>
-    </row>
-    <row r="87" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H86" s="57"/>
+      <c r="I86" s="70"/>
+    </row>
+    <row r="87" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B87" s="59"/>
       <c r="C87" s="59"/>
       <c r="D87" s="59"/>
-      <c r="E87" s="54"/>
-      <c r="F87" s="58"/>
+      <c r="E87" s="59"/>
+      <c r="F87" s="54"/>
       <c r="G87" s="58"/>
-      <c r="H87" s="70"/>
-    </row>
-    <row r="88" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H87" s="58"/>
+      <c r="I87" s="70"/>
+    </row>
+    <row r="88" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B88" s="59"/>
       <c r="C88" s="59"/>
       <c r="D88" s="59"/>
-      <c r="E88" s="56"/>
-      <c r="F88" s="57"/>
+      <c r="E88" s="59"/>
+      <c r="F88" s="56"/>
       <c r="G88" s="57"/>
-      <c r="H88" s="70"/>
-    </row>
-    <row r="89" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H88" s="57"/>
+      <c r="I88" s="70"/>
+    </row>
+    <row r="89" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B89" s="59"/>
       <c r="C89" s="59"/>
       <c r="D89" s="59"/>
-      <c r="E89" s="56"/>
-      <c r="F89" s="58"/>
+      <c r="E89" s="59"/>
+      <c r="F89" s="56"/>
       <c r="G89" s="58"/>
-      <c r="H89" s="70"/>
-    </row>
-    <row r="90" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H89" s="58"/>
+      <c r="I89" s="70"/>
+    </row>
+    <row r="90" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B90" s="59"/>
       <c r="C90" s="59"/>
       <c r="D90" s="59"/>
-      <c r="E90" s="56"/>
-      <c r="F90" s="57"/>
+      <c r="E90" s="59"/>
+      <c r="F90" s="56"/>
       <c r="G90" s="57"/>
-      <c r="H90" s="70"/>
-    </row>
-    <row r="91" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H90" s="57"/>
+      <c r="I90" s="70"/>
+    </row>
+    <row r="91" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B91" s="59"/>
       <c r="C91" s="59"/>
       <c r="D91" s="59"/>
-      <c r="E91" s="56"/>
-      <c r="F91" s="58"/>
+      <c r="E91" s="59"/>
+      <c r="F91" s="56"/>
       <c r="G91" s="58"/>
-      <c r="H91" s="70"/>
-    </row>
-    <row r="92" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H91" s="58"/>
+      <c r="I91" s="70"/>
+    </row>
+    <row r="92" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B92" s="59"/>
       <c r="C92" s="59"/>
       <c r="D92" s="59"/>
-      <c r="E92" s="56"/>
-      <c r="F92" s="57"/>
+      <c r="E92" s="59"/>
+      <c r="F92" s="56"/>
       <c r="G92" s="57"/>
-      <c r="H92" s="70"/>
-    </row>
-    <row r="93" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H92" s="57"/>
+      <c r="I92" s="70"/>
+    </row>
+    <row r="93" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B93" s="59"/>
       <c r="C93" s="59"/>
       <c r="D93" s="59"/>
-      <c r="E93" s="56"/>
-      <c r="F93" s="58"/>
+      <c r="E93" s="59"/>
+      <c r="F93" s="56"/>
       <c r="G93" s="58"/>
-      <c r="H93" s="70"/>
-    </row>
-    <row r="94" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H93" s="58"/>
+      <c r="I93" s="70"/>
+    </row>
+    <row r="94" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B94" s="59"/>
       <c r="C94" s="59"/>
       <c r="D94" s="59"/>
-      <c r="E94" s="56"/>
-      <c r="F94" s="57"/>
+      <c r="E94" s="59"/>
+      <c r="F94" s="56"/>
       <c r="G94" s="57"/>
-      <c r="H94" s="70"/>
-    </row>
-    <row r="95" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H94" s="57"/>
+      <c r="I94" s="70"/>
+    </row>
+    <row r="95" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B95" s="59"/>
       <c r="C95" s="59"/>
       <c r="D95" s="59"/>
-      <c r="E95" s="56"/>
-      <c r="F95" s="58"/>
+      <c r="E95" s="59"/>
+      <c r="F95" s="56"/>
       <c r="G95" s="58"/>
-      <c r="H95" s="70"/>
-    </row>
-    <row r="96" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="H95" s="58"/>
+      <c r="I95" s="70"/>
+    </row>
+    <row r="96" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B96" s="59"/>
       <c r="C96" s="59"/>
       <c r="D96" s="59"/>
-      <c r="E96" s="56"/>
-      <c r="F96" s="57"/>
+      <c r="E96" s="59"/>
+      <c r="F96" s="56"/>
       <c r="G96" s="57"/>
-      <c r="H96" s="70"/>
+      <c r="H96" s="57"/>
+      <c r="I96" s="70"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="B1:C1"/>
-    <mergeCell ref="E1:G1"/>
+    <mergeCell ref="F1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="2">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookup!$C$2:$C$5</xm:f>
           </x14:formula1>
-          <xm:sqref>D1:D1048576</xm:sqref>
+          <xm:sqref>E1:E1048576</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Lookup!$E$2:$E$5</xm:f>
           </x14:formula1>
-          <xm:sqref>H1:H1048576</xm:sqref>
+          <xm:sqref>I1:I1048576</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>Lookup!$F$2:$F$14</xm:f>
+          </x14:formula1>
+          <xm:sqref>D3:D77</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -3970,10 +4086,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3983,9 +4099,10 @@
     <col min="3" max="3" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B1" s="77" t="s">
         <v>11</v>
       </c>
@@ -3998,8 +4115,11 @@
       <c r="E1" s="77" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F1" s="108" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B2" s="78" t="s">
         <v>14</v>
       </c>
@@ -4012,8 +4132,11 @@
       <c r="E2" s="79" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F2" s="108" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="78" t="s">
         <v>63</v>
       </c>
@@ -4026,8 +4149,11 @@
       <c r="E3" s="79" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F3" s="108" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B4" s="78" t="s">
         <v>62</v>
       </c>
@@ -4040,8 +4166,11 @@
       <c r="E4" s="79" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F4" s="108" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B5" s="78" t="s">
         <v>17</v>
       </c>
@@ -4054,8 +4183,11 @@
       <c r="E5" s="79" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F5" s="108" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="45"/>
       <c r="B6" s="79" t="s">
         <v>19</v>
@@ -4065,8 +4197,11 @@
         <v>22</v>
       </c>
       <c r="E6" s="79"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F6" s="108" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="45"/>
       <c r="B7" s="79" t="s">
         <v>21</v>
@@ -4074,8 +4209,11 @@
       <c r="C7" s="79"/>
       <c r="D7" s="79"/>
       <c r="E7" s="79"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F7" s="108" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="45"/>
       <c r="B8" s="79" t="s">
         <v>23</v>
@@ -4083,28 +4221,49 @@
       <c r="C8" s="80"/>
       <c r="D8" s="80"/>
       <c r="E8" s="80"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="F8" s="108" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="45"/>
       <c r="B9" s="80"/>
       <c r="C9" s="80"/>
       <c r="D9" s="80"/>
       <c r="E9" s="80"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F9" s="108" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="47"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F10" s="108" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="47"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F11" s="108" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="47"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F12" s="108" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="47"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F13" s="108" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="47"/>
+      <c r="F14" s="108" t="s">
+        <v>205</v>
+      </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" s="47"/>
